--- a/experiments/Experiment1Pseudo.xlsx
+++ b/experiments/Experiment1Pseudo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279F0CAF-7489-4B11-B250-F64E1558D823}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07488C35-1AF4-4ECA-880C-B4DCCCB039BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,7 +362,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,19 +409,19 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C2" s="3">
-        <v>3.8E-6</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="D2" s="3">
-        <v>1.9999999999999999E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E2" s="3">
-        <v>3.4999999999999999E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="F2" s="3">
-        <v>1.9999999999999999E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="G2" s="3">
-        <v>4.9999999999999998E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="I2" s="3">
         <f>MIN(B2,D2,F2)</f>
@@ -429,7 +429,7 @@
       </c>
       <c r="J2" s="3">
         <f>MIN(C2,E2,G2)</f>
-        <v>4.9999999999999998E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -437,30 +437,30 @@
         <v>10001</v>
       </c>
       <c r="B3" s="3">
-        <v>9.6000000000000002E-4</v>
+        <v>5.7530000000000005E-4</v>
       </c>
       <c r="C3" s="3">
-        <v>1.22831E-2</v>
+        <v>3.1002E-3</v>
       </c>
       <c r="D3" s="3">
-        <v>9.6239999999999997E-4</v>
+        <v>5.9509999999999999E-4</v>
       </c>
       <c r="E3" s="3">
-        <v>1.17401E-2</v>
+        <v>4.1158000000000002E-3</v>
       </c>
       <c r="F3" s="3">
-        <v>9.5620000000000004E-4</v>
+        <v>5.934E-4</v>
       </c>
       <c r="G3" s="3">
-        <v>1.1188099999999999E-2</v>
+        <v>3.0584000000000002E-3</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I66" si="0">MIN(B3,D3,F3)</f>
-        <v>9.5620000000000004E-4</v>
+        <v>5.7530000000000005E-4</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" ref="J3:J66" si="1">MIN(C3,E3,G3)</f>
-        <v>1.1188099999999999E-2</v>
+        <v>3.0584000000000002E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -468,30 +468,30 @@
         <v>20001</v>
       </c>
       <c r="B4" s="3">
-        <v>2.0831999999999999E-3</v>
+        <v>1.1982E-3</v>
       </c>
       <c r="C4" s="3">
-        <v>2.5862099999999999E-2</v>
+        <v>6.8995999999999997E-3</v>
       </c>
       <c r="D4" s="3">
-        <v>2.0588999999999998E-3</v>
+        <v>1.2527E-3</v>
       </c>
       <c r="E4" s="3">
-        <v>2.4758499999999999E-2</v>
+        <v>7.8334000000000008E-3</v>
       </c>
       <c r="F4" s="3">
-        <v>2.0490999999999999E-3</v>
+        <v>1.2378999999999999E-3</v>
       </c>
       <c r="G4" s="3">
-        <v>2.4684899999999999E-2</v>
+        <v>6.6243999999999999E-3</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>2.0490999999999999E-3</v>
+        <v>1.1982E-3</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="1"/>
-        <v>2.4684899999999999E-2</v>
+        <v>6.6243999999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -499,30 +499,30 @@
         <v>30001</v>
       </c>
       <c r="B5" s="3">
-        <v>3.4585000000000002E-3</v>
+        <v>1.8697E-3</v>
       </c>
       <c r="C5" s="3">
-        <v>3.83386E-2</v>
+        <v>1.03952E-2</v>
       </c>
       <c r="D5" s="3">
-        <v>3.1867000000000002E-3</v>
+        <v>1.9748000000000001E-3</v>
       </c>
       <c r="E5" s="3">
-        <v>3.8753200000000002E-2</v>
+        <v>1.14273E-2</v>
       </c>
       <c r="F5" s="3">
-        <v>3.2016000000000002E-3</v>
+        <v>1.9583999999999999E-3</v>
       </c>
       <c r="G5" s="3">
-        <v>3.8995000000000002E-2</v>
+        <v>1.0423099999999999E-2</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>3.1867000000000002E-3</v>
+        <v>1.8697E-3</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="1"/>
-        <v>3.83386E-2</v>
+        <v>1.03952E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -530,30 +530,30 @@
         <v>40001</v>
       </c>
       <c r="B6" s="3">
-        <v>4.4568000000000003E-3</v>
+        <v>2.7618999999999999E-3</v>
       </c>
       <c r="C6" s="3">
-        <v>5.7400399999999997E-2</v>
+        <v>1.4389300000000001E-2</v>
       </c>
       <c r="D6" s="3">
-        <v>4.2656999999999999E-3</v>
+        <v>2.5947000000000001E-3</v>
       </c>
       <c r="E6" s="3">
-        <v>5.6263599999999997E-2</v>
+        <v>1.43368E-2</v>
       </c>
       <c r="F6" s="3">
-        <v>4.3365000000000001E-3</v>
+        <v>2.6121999999999999E-3</v>
       </c>
       <c r="G6" s="3">
-        <v>5.9046300000000003E-2</v>
+        <v>1.43246E-2</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>4.2656999999999999E-3</v>
+        <v>2.5947000000000001E-3</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>5.6263599999999997E-2</v>
+        <v>1.43246E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -561,30 +561,30 @@
         <v>50001</v>
       </c>
       <c r="B7" s="3">
-        <v>6.0974000000000002E-3</v>
+        <v>3.362E-3</v>
       </c>
       <c r="C7" s="3">
-        <v>8.5437399999999997E-2</v>
+        <v>1.8664E-2</v>
       </c>
       <c r="D7" s="3">
-        <v>5.5947000000000002E-3</v>
+        <v>3.4153999999999999E-3</v>
       </c>
       <c r="E7" s="3">
-        <v>8.6059999999999998E-2</v>
+        <v>1.82422E-2</v>
       </c>
       <c r="F7" s="3">
-        <v>5.9505000000000001E-3</v>
+        <v>3.3974999999999999E-3</v>
       </c>
       <c r="G7" s="3">
-        <v>8.7835899999999995E-2</v>
+        <v>1.86039E-2</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
-        <v>5.5947000000000002E-3</v>
+        <v>3.362E-3</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="1"/>
-        <v>8.5437399999999997E-2</v>
+        <v>1.82422E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -592,30 +592,30 @@
         <v>60001</v>
       </c>
       <c r="B8" s="3">
-        <v>6.8173000000000001E-3</v>
+        <v>3.9261000000000001E-3</v>
       </c>
       <c r="C8" s="3">
-        <v>9.1795199999999993E-2</v>
+        <v>2.2411799999999999E-2</v>
       </c>
       <c r="D8" s="3">
-        <v>6.8611999999999996E-3</v>
+        <v>4.0492999999999996E-3</v>
       </c>
       <c r="E8" s="3">
-        <v>9.6324800000000002E-2</v>
+        <v>2.2177599999999999E-2</v>
       </c>
       <c r="F8" s="3">
-        <v>7.5430999999999996E-3</v>
+        <v>3.9566999999999996E-3</v>
       </c>
       <c r="G8" s="3">
-        <v>8.6827399999999999E-2</v>
+        <v>2.2599399999999999E-2</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
-        <v>6.8173000000000001E-3</v>
+        <v>3.9261000000000001E-3</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="1"/>
-        <v>8.6827399999999999E-2</v>
+        <v>2.2177599999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -623,30 +623,30 @@
         <v>70001</v>
       </c>
       <c r="B9" s="3">
-        <v>8.0207000000000004E-3</v>
+        <v>5.3337000000000002E-3</v>
       </c>
       <c r="C9" s="3">
-        <v>0.10311099999999999</v>
+        <v>2.7125699999999999E-2</v>
       </c>
       <c r="D9" s="3">
-        <v>8.0283999999999998E-3</v>
+        <v>4.6759999999999996E-3</v>
       </c>
       <c r="E9" s="3">
-        <v>0.101655</v>
+        <v>2.6726400000000001E-2</v>
       </c>
       <c r="F9" s="3">
-        <v>7.6747999999999999E-3</v>
+        <v>4.6178E-3</v>
       </c>
       <c r="G9" s="3">
-        <v>0.108117</v>
+        <v>2.71898E-2</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
-        <v>7.6747999999999999E-3</v>
+        <v>4.6178E-3</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="1"/>
-        <v>0.101655</v>
+        <v>2.6726400000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -654,30 +654,30 @@
         <v>80001</v>
       </c>
       <c r="B10" s="3">
-        <v>9.2230000000000003E-3</v>
+        <v>5.8589000000000002E-3</v>
       </c>
       <c r="C10" s="3">
-        <v>0.12696499999999999</v>
+        <v>3.1203100000000001E-2</v>
       </c>
       <c r="D10" s="3">
-        <v>9.1505000000000006E-3</v>
+        <v>5.4467999999999999E-3</v>
       </c>
       <c r="E10" s="3">
-        <v>0.12872500000000001</v>
+        <v>3.1210999999999999E-2</v>
       </c>
       <c r="F10" s="3">
-        <v>8.9621000000000006E-3</v>
+        <v>5.3061999999999996E-3</v>
       </c>
       <c r="G10" s="3">
-        <v>0.130412</v>
+        <v>3.1488000000000002E-2</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>8.9621000000000006E-3</v>
+        <v>5.3061999999999996E-3</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>0.12696499999999999</v>
+        <v>3.1203100000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -685,30 +685,30 @@
         <v>90001</v>
       </c>
       <c r="B11" s="3">
-        <v>1.0402E-2</v>
+        <v>6.0255999999999999E-3</v>
       </c>
       <c r="C11" s="3">
-        <v>0.132358</v>
+        <v>4.0776600000000003E-2</v>
       </c>
       <c r="D11" s="3">
-        <v>1.0551899999999999E-2</v>
+        <v>6.0850000000000001E-3</v>
       </c>
       <c r="E11" s="3">
-        <v>0.13316700000000001</v>
+        <v>3.7967500000000001E-2</v>
       </c>
       <c r="F11" s="3">
-        <v>1.0281800000000001E-2</v>
+        <v>6.0391999999999998E-3</v>
       </c>
       <c r="G11" s="3">
-        <v>0.12909399999999999</v>
+        <v>3.7660800000000001E-2</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
-        <v>1.0281800000000001E-2</v>
+        <v>6.0255999999999999E-3</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="1"/>
-        <v>0.12909399999999999</v>
+        <v>3.7660800000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -716,30 +716,30 @@
         <v>100001</v>
       </c>
       <c r="B12" s="3">
-        <v>1.17193E-2</v>
+        <v>6.7825999999999997E-3</v>
       </c>
       <c r="C12" s="3">
-        <v>0.14272399999999999</v>
+        <v>4.0527399999999998E-2</v>
       </c>
       <c r="D12" s="3">
-        <v>1.14605E-2</v>
+        <v>6.7993999999999997E-3</v>
       </c>
       <c r="E12" s="3">
-        <v>0.14276700000000001</v>
+        <v>4.0683400000000002E-2</v>
       </c>
       <c r="F12" s="3">
-        <v>1.15759E-2</v>
+        <v>6.7533000000000003E-3</v>
       </c>
       <c r="G12" s="3">
-        <v>0.14583199999999999</v>
+        <v>4.0860800000000003E-2</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
-        <v>1.14605E-2</v>
+        <v>6.7533000000000003E-3</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
-        <v>0.14272399999999999</v>
+        <v>4.0527399999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -747,30 +747,30 @@
         <v>110001</v>
       </c>
       <c r="B13" s="3">
-        <v>1.238E-2</v>
+        <v>7.5561999999999999E-3</v>
       </c>
       <c r="C13" s="3">
-        <v>0.156773</v>
+        <v>4.6299600000000003E-2</v>
       </c>
       <c r="D13" s="3">
-        <v>1.24052E-2</v>
+        <v>7.6349E-3</v>
       </c>
       <c r="E13" s="3">
-        <v>0.15936500000000001</v>
+        <v>4.79406E-2</v>
       </c>
       <c r="F13" s="3">
-        <v>1.2324099999999999E-2</v>
+        <v>7.4986000000000002E-3</v>
       </c>
       <c r="G13" s="3">
-        <v>0.15865299999999999</v>
+        <v>4.50032E-2</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
-        <v>1.2324099999999999E-2</v>
+        <v>7.4986000000000002E-3</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="1"/>
-        <v>0.156773</v>
+        <v>4.50032E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -778,30 +778,30 @@
         <v>120001</v>
       </c>
       <c r="B14" s="3">
-        <v>1.3692299999999999E-2</v>
+        <v>8.3829999999999998E-3</v>
       </c>
       <c r="C14" s="3">
-        <v>0.17388000000000001</v>
+        <v>5.5200100000000002E-2</v>
       </c>
       <c r="D14" s="3">
-        <v>1.3841900000000001E-2</v>
+        <v>8.4309999999999993E-3</v>
       </c>
       <c r="E14" s="3">
-        <v>0.176144</v>
+        <v>5.2952399999999997E-2</v>
       </c>
       <c r="F14" s="3">
-        <v>1.3873099999999999E-2</v>
+        <v>8.4431000000000003E-3</v>
       </c>
       <c r="G14" s="3">
-        <v>0.17732300000000001</v>
+        <v>5.8453900000000003E-2</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
-        <v>1.3692299999999999E-2</v>
+        <v>8.3829999999999998E-3</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>0.17388000000000001</v>
+        <v>5.2952399999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -809,30 +809,30 @@
         <v>130001</v>
       </c>
       <c r="B15" s="3">
-        <v>1.48535E-2</v>
+        <v>8.8804000000000001E-3</v>
       </c>
       <c r="C15" s="3">
-        <v>0.18793699999999999</v>
+        <v>5.4908800000000001E-2</v>
       </c>
       <c r="D15" s="3">
-        <v>1.45903E-2</v>
+        <v>9.1131000000000007E-3</v>
       </c>
       <c r="E15" s="3">
-        <v>0.19214999999999999</v>
+        <v>5.7656100000000002E-2</v>
       </c>
       <c r="F15" s="3">
-        <v>1.4715499999999999E-2</v>
+        <v>8.9850999999999993E-3</v>
       </c>
       <c r="G15" s="3">
-        <v>0.19328799999999999</v>
+        <v>6.5957199999999994E-2</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
-        <v>1.45903E-2</v>
+        <v>8.8804000000000001E-3</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="1"/>
-        <v>0.18793699999999999</v>
+        <v>5.4908800000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -840,30 +840,30 @@
         <v>140001</v>
       </c>
       <c r="B16" s="3">
-        <v>1.5993799999999999E-2</v>
+        <v>9.6240000000000006E-3</v>
       </c>
       <c r="C16" s="3">
-        <v>0.20890400000000001</v>
+        <v>6.2011999999999998E-2</v>
       </c>
       <c r="D16" s="3">
-        <v>1.5878699999999999E-2</v>
+        <v>9.7213999999999998E-3</v>
       </c>
       <c r="E16" s="3">
-        <v>0.20558000000000001</v>
+        <v>6.2697900000000001E-2</v>
       </c>
       <c r="F16" s="3">
-        <v>1.58979E-2</v>
+        <v>9.7447999999999996E-3</v>
       </c>
       <c r="G16" s="3">
-        <v>0.21141699999999999</v>
+        <v>6.4912700000000004E-2</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
-        <v>1.5878699999999999E-2</v>
+        <v>9.6240000000000006E-3</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="1"/>
-        <v>0.20558000000000001</v>
+        <v>6.2011999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -871,30 +871,30 @@
         <v>150001</v>
       </c>
       <c r="B17" s="3">
-        <v>1.74606E-2</v>
+        <v>1.0477500000000001E-2</v>
       </c>
       <c r="C17" s="3">
-        <v>0.22353899999999999</v>
+        <v>6.5953200000000003E-2</v>
       </c>
       <c r="D17" s="3">
-        <v>1.7195599999999998E-2</v>
+        <v>1.0608599999999999E-2</v>
       </c>
       <c r="E17" s="3">
-        <v>0.22640399999999999</v>
+        <v>6.3751199999999994E-2</v>
       </c>
       <c r="F17" s="3">
-        <v>1.7101399999999999E-2</v>
+        <v>1.0669E-2</v>
       </c>
       <c r="G17" s="3">
-        <v>0.225825</v>
+        <v>6.5085000000000004E-2</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
-        <v>1.7101399999999999E-2</v>
+        <v>1.0477500000000001E-2</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>0.22353899999999999</v>
+        <v>6.3751199999999994E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -902,30 +902,30 @@
         <v>160001</v>
       </c>
       <c r="B18" s="3">
-        <v>1.85484E-2</v>
+        <v>1.1265000000000001E-2</v>
       </c>
       <c r="C18" s="3">
-        <v>0.24690999999999999</v>
+        <v>6.8478399999999995E-2</v>
       </c>
       <c r="D18" s="3">
-        <v>1.8549099999999999E-2</v>
+        <v>1.15932E-2</v>
       </c>
       <c r="E18" s="3">
-        <v>0.24226400000000001</v>
+        <v>6.9121600000000005E-2</v>
       </c>
       <c r="F18" s="3">
-        <v>1.8462699999999999E-2</v>
+        <v>1.1480300000000001E-2</v>
       </c>
       <c r="G18" s="3">
-        <v>0.247863</v>
+        <v>7.3053300000000002E-2</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="0"/>
-        <v>1.8462699999999999E-2</v>
+        <v>1.1265000000000001E-2</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="1"/>
-        <v>0.24226400000000001</v>
+        <v>6.8478399999999995E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -933,30 +933,30 @@
         <v>170001</v>
       </c>
       <c r="B19" s="3">
-        <v>1.96011E-2</v>
+        <v>1.18263E-2</v>
       </c>
       <c r="C19" s="3">
-        <v>0.26140999999999998</v>
+        <v>7.3418200000000003E-2</v>
       </c>
       <c r="D19" s="3">
-        <v>1.9466899999999999E-2</v>
+        <v>1.1979800000000001E-2</v>
       </c>
       <c r="E19" s="3">
-        <v>0.26013599999999998</v>
+        <v>7.7578900000000006E-2</v>
       </c>
       <c r="F19" s="3">
-        <v>1.9304000000000002E-2</v>
+        <v>1.19598E-2</v>
       </c>
       <c r="G19" s="3">
-        <v>0.25927600000000001</v>
+        <v>8.2102400000000006E-2</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="0"/>
-        <v>1.9304000000000002E-2</v>
+        <v>1.18263E-2</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="1"/>
-        <v>0.25927600000000001</v>
+        <v>7.3418200000000003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -964,30 +964,30 @@
         <v>180001</v>
       </c>
       <c r="B20" s="3">
-        <v>2.13718E-2</v>
+        <v>1.2892799999999999E-2</v>
       </c>
       <c r="C20" s="3">
-        <v>0.27773900000000001</v>
+        <v>7.8043899999999999E-2</v>
       </c>
       <c r="D20" s="3">
-        <v>2.1038500000000002E-2</v>
+        <v>1.29868E-2</v>
       </c>
       <c r="E20" s="3">
-        <v>0.28156700000000001</v>
+        <v>8.8003100000000001E-2</v>
       </c>
       <c r="F20" s="3">
-        <v>2.1092699999999999E-2</v>
+        <v>1.3183800000000001E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>0.28404600000000002</v>
+        <v>7.8634200000000001E-2</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="0"/>
-        <v>2.1038500000000002E-2</v>
+        <v>1.2892799999999999E-2</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="1"/>
-        <v>0.27773900000000001</v>
+        <v>7.8043899999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -995,30 +995,30 @@
         <v>190001</v>
       </c>
       <c r="B21" s="3">
-        <v>2.2061399999999998E-2</v>
+        <v>1.3365200000000001E-2</v>
       </c>
       <c r="C21" s="3">
-        <v>0.29515799999999998</v>
+        <v>8.1653900000000001E-2</v>
       </c>
       <c r="D21" s="3">
-        <v>2.18111E-2</v>
+        <v>1.3790800000000001E-2</v>
       </c>
       <c r="E21" s="3">
-        <v>0.29609799999999997</v>
+        <v>8.5817900000000003E-2</v>
       </c>
       <c r="F21" s="3">
-        <v>2.1842500000000001E-2</v>
+        <v>1.3751899999999999E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>0.30413800000000002</v>
+        <v>8.9176199999999997E-2</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="0"/>
-        <v>2.18111E-2</v>
+        <v>1.3365200000000001E-2</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="1"/>
-        <v>0.29515799999999998</v>
+        <v>8.1653900000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1026,30 +1026,30 @@
         <v>200001</v>
       </c>
       <c r="B22" s="3">
-        <v>2.3909199999999999E-2</v>
+        <v>1.4215200000000001E-2</v>
       </c>
       <c r="C22" s="3">
-        <v>0.316168</v>
+        <v>8.7388199999999999E-2</v>
       </c>
       <c r="D22" s="3">
-        <v>2.3475900000000001E-2</v>
+        <v>1.43655E-2</v>
       </c>
       <c r="E22" s="3">
-        <v>0.31600099999999998</v>
+        <v>8.8151300000000002E-2</v>
       </c>
       <c r="F22" s="3">
-        <v>2.3483899999999999E-2</v>
+        <v>1.4489800000000001E-2</v>
       </c>
       <c r="G22" s="3">
-        <v>0.315585</v>
+        <v>9.4819000000000001E-2</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="0"/>
-        <v>2.3475900000000001E-2</v>
+        <v>1.4215200000000001E-2</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="1"/>
-        <v>0.315585</v>
+        <v>8.7388199999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1057,30 +1057,30 @@
         <v>210001</v>
       </c>
       <c r="B23" s="3">
-        <v>2.4995199999999999E-2</v>
+        <v>1.58388E-2</v>
       </c>
       <c r="C23" s="3">
-        <v>0.33700799999999997</v>
+        <v>9.4601699999999997E-2</v>
       </c>
       <c r="D23" s="3">
-        <v>2.4650999999999999E-2</v>
+        <v>1.52972E-2</v>
       </c>
       <c r="E23" s="3">
-        <v>0.33634599999999998</v>
+        <v>9.1483599999999998E-2</v>
       </c>
       <c r="F23" s="3">
-        <v>2.4621400000000002E-2</v>
+        <v>1.5272600000000001E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>0.34037899999999999</v>
+        <v>9.1262099999999999E-2</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="0"/>
-        <v>2.4621400000000002E-2</v>
+        <v>1.5272600000000001E-2</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="1"/>
-        <v>0.33634599999999998</v>
+        <v>9.1262099999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1088,30 +1088,30 @@
         <v>220001</v>
       </c>
       <c r="B24" s="3">
-        <v>2.6017200000000001E-2</v>
+        <v>1.61186E-2</v>
       </c>
       <c r="C24" s="3">
-        <v>0.358205</v>
+        <v>9.6634999999999999E-2</v>
       </c>
       <c r="D24" s="3">
-        <v>2.56124E-2</v>
+        <v>1.67828E-2</v>
       </c>
       <c r="E24" s="3">
-        <v>0.357182</v>
+        <v>9.6112000000000003E-2</v>
       </c>
       <c r="F24" s="3">
-        <v>2.56995E-2</v>
+        <v>1.5948400000000001E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>0.34976800000000002</v>
+        <v>9.7589300000000004E-2</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="0"/>
-        <v>2.56124E-2</v>
+        <v>1.5948400000000001E-2</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="1"/>
-        <v>0.34976800000000002</v>
+        <v>9.6112000000000003E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1119,30 +1119,30 @@
         <v>230001</v>
       </c>
       <c r="B25" s="3">
-        <v>2.70046E-2</v>
+        <v>1.6452399999999999E-2</v>
       </c>
       <c r="C25" s="3">
-        <v>0.37323200000000001</v>
+        <v>0.10277699999999999</v>
       </c>
       <c r="D25" s="3">
-        <v>2.7387700000000001E-2</v>
+        <v>1.6594899999999999E-2</v>
       </c>
       <c r="E25" s="3">
-        <v>0.37422</v>
+        <v>0.100428</v>
       </c>
       <c r="F25" s="3">
-        <v>2.7314399999999999E-2</v>
+        <v>1.6559399999999998E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>0.36754199999999998</v>
+        <v>0.101924</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="0"/>
-        <v>2.70046E-2</v>
+        <v>1.6452399999999999E-2</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="1"/>
-        <v>0.36754199999999998</v>
+        <v>0.100428</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1150,30 +1150,30 @@
         <v>240001</v>
       </c>
       <c r="B26" s="3">
-        <v>2.88179E-2</v>
+        <v>1.75756E-2</v>
       </c>
       <c r="C26" s="3">
-        <v>0.39382899999999998</v>
+        <v>0.107075</v>
       </c>
       <c r="D26" s="3">
-        <v>2.87367E-2</v>
+        <v>1.75605E-2</v>
       </c>
       <c r="E26" s="3">
-        <v>0.392625</v>
+        <v>0.10702100000000001</v>
       </c>
       <c r="F26" s="3">
-        <v>2.9217799999999999E-2</v>
+        <v>1.76387E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>0.39306400000000002</v>
+        <v>0.10696700000000001</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="0"/>
-        <v>2.87367E-2</v>
+        <v>1.75605E-2</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="1"/>
-        <v>0.392625</v>
+        <v>0.10696700000000001</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1181,30 +1181,30 @@
         <v>250001</v>
       </c>
       <c r="B27" s="3">
-        <v>3.0383299999999999E-2</v>
+        <v>1.8578500000000001E-2</v>
       </c>
       <c r="C27" s="3">
-        <v>0.40957300000000002</v>
+        <v>0.11291</v>
       </c>
       <c r="D27" s="3">
-        <v>3.04712E-2</v>
+        <v>1.8660400000000001E-2</v>
       </c>
       <c r="E27" s="3">
-        <v>0.413414</v>
+        <v>0.110559</v>
       </c>
       <c r="F27" s="3">
-        <v>2.99952E-2</v>
+        <v>1.85858E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>0.41240199999999999</v>
+        <v>0.111183</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="0"/>
-        <v>2.99952E-2</v>
+        <v>1.8578500000000001E-2</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="1"/>
-        <v>0.40957300000000002</v>
+        <v>0.110559</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1212,30 +1212,30 @@
         <v>260001</v>
       </c>
       <c r="B28" s="3">
-        <v>3.12669E-2</v>
+        <v>1.84741E-2</v>
       </c>
       <c r="C28" s="3">
-        <v>0.43307099999999998</v>
+        <v>0.1203</v>
       </c>
       <c r="D28" s="3">
-        <v>3.1521E-2</v>
+        <v>1.9162800000000001E-2</v>
       </c>
       <c r="E28" s="3">
-        <v>0.43068899999999999</v>
+        <v>0.115926</v>
       </c>
       <c r="F28" s="3">
-        <v>3.0936000000000002E-2</v>
+        <v>1.8592299999999999E-2</v>
       </c>
       <c r="G28" s="3">
-        <v>0.43576399999999998</v>
+        <v>0.117477</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="0"/>
-        <v>3.0936000000000002E-2</v>
+        <v>1.84741E-2</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="1"/>
-        <v>0.43068899999999999</v>
+        <v>0.115926</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1243,30 +1243,30 @@
         <v>270001</v>
       </c>
       <c r="B29" s="3">
-        <v>3.2300099999999998E-2</v>
+        <v>2.0570499999999999E-2</v>
       </c>
       <c r="C29" s="3">
-        <v>0.44913399999999998</v>
+        <v>0.13279099999999999</v>
       </c>
       <c r="D29" s="3">
-        <v>3.2783399999999997E-2</v>
+        <v>2.0061099999999998E-2</v>
       </c>
       <c r="E29" s="3">
-        <v>0.45351900000000001</v>
+        <v>0.122326</v>
       </c>
       <c r="F29" s="3">
-        <v>3.2348700000000001E-2</v>
+        <v>1.9818800000000001E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>0.45521200000000001</v>
+        <v>0.121655</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="0"/>
-        <v>3.2300099999999998E-2</v>
+        <v>1.9818800000000001E-2</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="1"/>
-        <v>0.44913399999999998</v>
+        <v>0.121655</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1274,30 +1274,30 @@
         <v>280001</v>
       </c>
       <c r="B30" s="3">
-        <v>3.4459799999999999E-2</v>
+        <v>2.06561E-2</v>
       </c>
       <c r="C30" s="3">
-        <v>0.47149099999999999</v>
+        <v>0.141898</v>
       </c>
       <c r="D30" s="3">
-        <v>3.42183E-2</v>
+        <v>2.07414E-2</v>
       </c>
       <c r="E30" s="3">
-        <v>0.47216000000000002</v>
+        <v>0.12587699999999999</v>
       </c>
       <c r="F30" s="3">
-        <v>3.3378999999999999E-2</v>
+        <v>2.2088799999999999E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>0.47524899999999998</v>
+        <v>0.128938</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="0"/>
-        <v>3.3378999999999999E-2</v>
+        <v>2.06561E-2</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="1"/>
-        <v>0.47149099999999999</v>
+        <v>0.12587699999999999</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1305,30 +1305,30 @@
         <v>290001</v>
       </c>
       <c r="B31" s="3">
-        <v>3.5446400000000003E-2</v>
+        <v>2.21459E-2</v>
       </c>
       <c r="C31" s="3">
-        <v>0.49423099999999998</v>
+        <v>0.13950499999999999</v>
       </c>
       <c r="D31" s="3">
-        <v>3.48802E-2</v>
+        <v>2.29001E-2</v>
       </c>
       <c r="E31" s="3">
-        <v>0.49210999999999999</v>
+        <v>0.13178899999999999</v>
       </c>
       <c r="F31" s="3">
-        <v>3.4812999999999997E-2</v>
+        <v>2.1937399999999999E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>0.49840299999999998</v>
+        <v>0.131356</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="0"/>
-        <v>3.4812999999999997E-2</v>
+        <v>2.1937399999999999E-2</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="1"/>
-        <v>0.49210999999999999</v>
+        <v>0.131356</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1336,30 +1336,30 @@
         <v>300001</v>
       </c>
       <c r="B32" s="3">
-        <v>3.6428299999999997E-2</v>
+        <v>2.20903E-2</v>
       </c>
       <c r="C32" s="3">
-        <v>0.52031400000000005</v>
+        <v>0.14752299999999999</v>
       </c>
       <c r="D32" s="3">
-        <v>3.5926899999999998E-2</v>
+        <v>2.2124499999999998E-2</v>
       </c>
       <c r="E32" s="3">
-        <v>0.51752100000000001</v>
+        <v>0.15203800000000001</v>
       </c>
       <c r="F32" s="3">
-        <v>3.6015800000000001E-2</v>
+        <v>2.2348099999999999E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>0.51269399999999998</v>
+        <v>0.14949899999999999</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>
-        <v>3.5926899999999998E-2</v>
+        <v>2.20903E-2</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="1"/>
-        <v>0.51269399999999998</v>
+        <v>0.14752299999999999</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1367,30 +1367,30 @@
         <v>310001</v>
       </c>
       <c r="B33" s="3">
-        <v>3.76692E-2</v>
+        <v>2.26465E-2</v>
       </c>
       <c r="C33" s="3">
-        <v>0.53375300000000003</v>
+        <v>0.14918999999999999</v>
       </c>
       <c r="D33" s="3">
-        <v>3.74682E-2</v>
+        <v>2.3165499999999999E-2</v>
       </c>
       <c r="E33" s="3">
-        <v>0.53515900000000005</v>
+        <v>0.14297499999999999</v>
       </c>
       <c r="F33" s="3">
-        <v>3.7859299999999999E-2</v>
+        <v>2.30344E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>0.53311799999999998</v>
+        <v>0.14472699999999999</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="0"/>
-        <v>3.74682E-2</v>
+        <v>2.26465E-2</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="1"/>
-        <v>0.53311799999999998</v>
+        <v>0.14297499999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1398,30 +1398,30 @@
         <v>320001</v>
       </c>
       <c r="B34" s="3">
-        <v>3.8928200000000003E-2</v>
+        <v>2.3618900000000002E-2</v>
       </c>
       <c r="C34" s="3">
-        <v>0.55335900000000005</v>
+        <v>0.15154899999999999</v>
       </c>
       <c r="D34" s="3">
-        <v>3.85671E-2</v>
+        <v>2.39971E-2</v>
       </c>
       <c r="E34" s="3">
-        <v>0.55922300000000003</v>
+        <v>0.149427</v>
       </c>
       <c r="F34" s="3">
-        <v>3.8359600000000001E-2</v>
+        <v>2.3694E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>0.55958200000000002</v>
+        <v>0.14982400000000001</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" si="0"/>
-        <v>3.8359600000000001E-2</v>
+        <v>2.3618900000000002E-2</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="1"/>
-        <v>0.55335900000000005</v>
+        <v>0.149427</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1429,30 +1429,30 @@
         <v>330001</v>
       </c>
       <c r="B35" s="3">
-        <v>3.9833300000000002E-2</v>
+        <v>2.4680799999999999E-2</v>
       </c>
       <c r="C35" s="3">
-        <v>0.57029700000000005</v>
+        <v>0.166713</v>
       </c>
       <c r="D35" s="3">
-        <v>4.0328799999999998E-2</v>
+        <v>2.49711E-2</v>
       </c>
       <c r="E35" s="3">
-        <v>0.57375299999999996</v>
+        <v>0.155385</v>
       </c>
       <c r="F35" s="3">
-        <v>4.0100700000000003E-2</v>
+        <v>2.4702700000000001E-2</v>
       </c>
       <c r="G35" s="3">
-        <v>0.57464599999999999</v>
+        <v>0.154387</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="0"/>
-        <v>3.9833300000000002E-2</v>
+        <v>2.4680799999999999E-2</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="1"/>
-        <v>0.57029700000000005</v>
+        <v>0.154387</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1460,30 +1460,30 @@
         <v>340001</v>
       </c>
       <c r="B36" s="3">
-        <v>4.1259499999999998E-2</v>
+        <v>2.56587E-2</v>
       </c>
       <c r="C36" s="3">
-        <v>0.593862</v>
+        <v>0.214056</v>
       </c>
       <c r="D36" s="3">
-        <v>4.0935199999999998E-2</v>
+        <v>2.5660599999999999E-2</v>
       </c>
       <c r="E36" s="3">
-        <v>0.59739200000000003</v>
+        <v>0.16067699999999999</v>
       </c>
       <c r="F36" s="3">
-        <v>4.13373E-2</v>
+        <v>2.5887899999999998E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>0.59590500000000002</v>
+        <v>0.15881000000000001</v>
       </c>
       <c r="I36" s="3">
         <f t="shared" si="0"/>
-        <v>4.0935199999999998E-2</v>
+        <v>2.56587E-2</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="1"/>
-        <v>0.593862</v>
+        <v>0.15881000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1491,30 +1491,30 @@
         <v>350001</v>
       </c>
       <c r="B37" s="3">
-        <v>4.2582299999999997E-2</v>
+        <v>2.5919399999999999E-2</v>
       </c>
       <c r="C37" s="3">
-        <v>0.617363</v>
+        <v>0.17932600000000001</v>
       </c>
       <c r="D37" s="3">
-        <v>4.3645400000000001E-2</v>
+        <v>2.5949699999999999E-2</v>
       </c>
       <c r="E37" s="3">
-        <v>0.61526199999999998</v>
+        <v>0.16769700000000001</v>
       </c>
       <c r="F37" s="3">
-        <v>4.3145099999999999E-2</v>
+        <v>2.6493300000000001E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>0.61935099999999998</v>
+        <v>0.16711899999999999</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="0"/>
-        <v>4.2582299999999997E-2</v>
+        <v>2.5919399999999999E-2</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="1"/>
-        <v>0.61526199999999998</v>
+        <v>0.16711899999999999</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1522,30 +1522,30 @@
         <v>360001</v>
       </c>
       <c r="B38" s="3">
-        <v>4.3090299999999998E-2</v>
+        <v>2.64812E-2</v>
       </c>
       <c r="C38" s="3">
-        <v>0.63961199999999996</v>
+        <v>0.20424999999999999</v>
       </c>
       <c r="D38" s="3">
-        <v>4.3240399999999998E-2</v>
+        <v>2.6440499999999999E-2</v>
       </c>
       <c r="E38" s="3">
-        <v>0.63700100000000004</v>
+        <v>0.172954</v>
       </c>
       <c r="F38" s="3">
-        <v>4.3335499999999999E-2</v>
+        <v>2.66032E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>0.64557500000000001</v>
+        <v>0.17364399999999999</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="0"/>
-        <v>4.3090299999999998E-2</v>
+        <v>2.6440499999999999E-2</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="1"/>
-        <v>0.63700100000000004</v>
+        <v>0.172954</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1553,30 +1553,30 @@
         <v>370001</v>
       </c>
       <c r="B39" s="3">
-        <v>4.5049699999999998E-2</v>
+        <v>2.7380499999999999E-2</v>
       </c>
       <c r="C39" s="3">
-        <v>0.65906399999999998</v>
+        <v>0.19561300000000001</v>
       </c>
       <c r="D39" s="3">
-        <v>4.6118600000000003E-2</v>
+        <v>2.73621E-2</v>
       </c>
       <c r="E39" s="3">
-        <v>0.65892300000000004</v>
+        <v>0.18001500000000001</v>
       </c>
       <c r="F39" s="3">
-        <v>4.4913000000000002E-2</v>
+        <v>2.7479300000000002E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>0.66081500000000004</v>
+        <v>0.17882600000000001</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" si="0"/>
-        <v>4.4913000000000002E-2</v>
+        <v>2.73621E-2</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="1"/>
-        <v>0.65892300000000004</v>
+        <v>0.17882600000000001</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1584,30 +1584,30 @@
         <v>380001</v>
       </c>
       <c r="B40" s="3">
-        <v>4.8746999999999999E-2</v>
+        <v>2.8244399999999999E-2</v>
       </c>
       <c r="C40" s="3">
-        <v>0.68501100000000004</v>
+        <v>0.23469599999999999</v>
       </c>
       <c r="D40" s="3">
-        <v>4.6964400000000003E-2</v>
+        <v>2.85533E-2</v>
       </c>
       <c r="E40" s="3">
-        <v>0.68495799999999996</v>
+        <v>0.18395300000000001</v>
       </c>
       <c r="F40" s="3">
-        <v>4.7238099999999998E-2</v>
+        <v>2.8365100000000001E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>0.68634200000000001</v>
+        <v>0.18340699999999999</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="0"/>
-        <v>4.6964400000000003E-2</v>
+        <v>2.8244399999999999E-2</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="1"/>
-        <v>0.68495799999999996</v>
+        <v>0.18340699999999999</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1615,30 +1615,30 @@
         <v>390001</v>
       </c>
       <c r="B41" s="3">
-        <v>4.8239999999999998E-2</v>
+        <v>2.8921700000000002E-2</v>
       </c>
       <c r="C41" s="3">
-        <v>0.70379899999999995</v>
+        <v>0.19523799999999999</v>
       </c>
       <c r="D41" s="3">
-        <v>4.8589800000000002E-2</v>
+        <v>2.9687499999999999E-2</v>
       </c>
       <c r="E41" s="3">
-        <v>0.70240000000000002</v>
+        <v>0.19105</v>
       </c>
       <c r="F41" s="3">
-        <v>4.7713899999999997E-2</v>
+        <v>2.88975E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>0.70047899999999996</v>
+        <v>0.19036700000000001</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" si="0"/>
-        <v>4.7713899999999997E-2</v>
+        <v>2.88975E-2</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="1"/>
-        <v>0.70047899999999996</v>
+        <v>0.19036700000000001</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1646,30 +1646,30 @@
         <v>400001</v>
       </c>
       <c r="B42" s="3">
-        <v>4.8959700000000002E-2</v>
+        <v>3.02083E-2</v>
       </c>
       <c r="C42" s="3">
-        <v>0.71931299999999998</v>
+        <v>0.20145199999999999</v>
       </c>
       <c r="D42" s="3">
-        <v>4.9633499999999997E-2</v>
+        <v>2.9569499999999999E-2</v>
       </c>
       <c r="E42" s="3">
-        <v>0.726024</v>
+        <v>0.194437</v>
       </c>
       <c r="F42" s="3">
-        <v>4.8802199999999997E-2</v>
+        <v>2.9709300000000001E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>0.73622900000000002</v>
+        <v>0.19817199999999999</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="0"/>
-        <v>4.8802199999999997E-2</v>
+        <v>2.9569499999999999E-2</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="1"/>
-        <v>0.71931299999999998</v>
+        <v>0.194437</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1677,30 +1677,30 @@
         <v>410001</v>
       </c>
       <c r="B43" s="3">
-        <v>5.1005599999999998E-2</v>
+        <v>3.16841E-2</v>
       </c>
       <c r="C43" s="3">
-        <v>0.75355399999999995</v>
+        <v>0.205677</v>
       </c>
       <c r="D43" s="3">
-        <v>5.0316699999999999E-2</v>
+        <v>3.0998399999999999E-2</v>
       </c>
       <c r="E43" s="3">
-        <v>0.74654299999999996</v>
+        <v>0.20024400000000001</v>
       </c>
       <c r="F43" s="3">
-        <v>5.0884400000000003E-2</v>
+        <v>3.08311E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>0.750112</v>
+        <v>0.20269400000000001</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="0"/>
-        <v>5.0316699999999999E-2</v>
+        <v>3.08311E-2</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="1"/>
-        <v>0.74654299999999996</v>
+        <v>0.20024400000000001</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1708,30 +1708,30 @@
         <v>420001</v>
       </c>
       <c r="B44" s="3">
-        <v>5.1653600000000001E-2</v>
+        <v>3.1446500000000002E-2</v>
       </c>
       <c r="C44" s="3">
-        <v>0.76381200000000005</v>
+        <v>0.21753400000000001</v>
       </c>
       <c r="D44" s="3">
-        <v>5.1741700000000002E-2</v>
+        <v>3.0532299999999998E-2</v>
       </c>
       <c r="E44" s="3">
-        <v>0.77163099999999996</v>
+        <v>0.208227</v>
       </c>
       <c r="F44" s="3">
-        <v>5.2438899999999997E-2</v>
+        <v>3.1257800000000002E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>0.76720500000000003</v>
+        <v>0.20916799999999999</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="0"/>
-        <v>5.1653600000000001E-2</v>
+        <v>3.0532299999999998E-2</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="1"/>
-        <v>0.76381200000000005</v>
+        <v>0.208227</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1739,30 +1739,30 @@
         <v>430001</v>
       </c>
       <c r="B45" s="3">
-        <v>5.2573700000000001E-2</v>
+        <v>3.18354E-2</v>
       </c>
       <c r="C45" s="3">
-        <v>0.81628400000000001</v>
+        <v>0.225776</v>
       </c>
       <c r="D45" s="3">
-        <v>5.3386200000000002E-2</v>
+        <v>3.1408400000000003E-2</v>
       </c>
       <c r="E45" s="3">
-        <v>0.79175899999999999</v>
+        <v>0.216588</v>
       </c>
       <c r="F45" s="3">
-        <v>5.2724899999999998E-2</v>
+        <v>3.2126099999999998E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>0.79316699999999996</v>
+        <v>0.22051299999999999</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="0"/>
-        <v>5.2573700000000001E-2</v>
+        <v>3.1408400000000003E-2</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="1"/>
-        <v>0.79175899999999999</v>
+        <v>0.216588</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1770,30 +1770,30 @@
         <v>440001</v>
       </c>
       <c r="B46" s="3">
-        <v>5.4201899999999997E-2</v>
+        <v>3.3545499999999999E-2</v>
       </c>
       <c r="C46" s="3">
-        <v>0.80884</v>
+        <v>0.226605</v>
       </c>
       <c r="D46" s="3">
-        <v>5.39636E-2</v>
+        <v>3.2864200000000003E-2</v>
       </c>
       <c r="E46" s="3">
-        <v>0.81685799999999997</v>
+        <v>0.22140299999999999</v>
       </c>
       <c r="F46" s="3">
-        <v>5.3965899999999997E-2</v>
+        <v>3.2982200000000003E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>0.80729300000000004</v>
+        <v>0.22355700000000001</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="0"/>
-        <v>5.39636E-2</v>
+        <v>3.2864200000000003E-2</v>
       </c>
       <c r="J46" s="3">
         <f t="shared" si="1"/>
-        <v>0.80729300000000004</v>
+        <v>0.22140299999999999</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1801,30 +1801,30 @@
         <v>450001</v>
       </c>
       <c r="B47" s="3">
-        <v>5.6229500000000002E-2</v>
+        <v>3.4025899999999998E-2</v>
       </c>
       <c r="C47" s="3">
-        <v>0.83570900000000004</v>
+        <v>0.28585899999999997</v>
       </c>
       <c r="D47" s="3">
-        <v>5.6019699999999999E-2</v>
+        <v>3.38737E-2</v>
       </c>
       <c r="E47" s="3">
-        <v>0.837005</v>
+        <v>0.23016500000000001</v>
       </c>
       <c r="F47" s="3">
-        <v>5.5593499999999997E-2</v>
+        <v>3.3904900000000002E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>0.83327899999999999</v>
+        <v>0.23294100000000001</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" si="0"/>
-        <v>5.5593499999999997E-2</v>
+        <v>3.38737E-2</v>
       </c>
       <c r="J47" s="3">
         <f t="shared" si="1"/>
-        <v>0.83327899999999999</v>
+        <v>0.23016500000000001</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -1832,30 +1832,30 @@
         <v>460001</v>
       </c>
       <c r="B48" s="3">
-        <v>5.6661000000000003E-2</v>
+        <v>3.4712E-2</v>
       </c>
       <c r="C48" s="3">
-        <v>0.85646699999999998</v>
+        <v>0.238894</v>
       </c>
       <c r="D48" s="3">
-        <v>5.7353000000000001E-2</v>
+        <v>3.4576599999999999E-2</v>
       </c>
       <c r="E48" s="3">
-        <v>0.86240799999999995</v>
+        <v>0.23370199999999999</v>
       </c>
       <c r="F48" s="3">
-        <v>5.7553699999999999E-2</v>
+        <v>3.5140900000000003E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>0.85547099999999998</v>
+        <v>0.237202</v>
       </c>
       <c r="I48" s="3">
         <f t="shared" si="0"/>
-        <v>5.6661000000000003E-2</v>
+        <v>3.4576599999999999E-2</v>
       </c>
       <c r="J48" s="3">
         <f t="shared" si="1"/>
-        <v>0.85547099999999998</v>
+        <v>0.23370199999999999</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -1863,30 +1863,30 @@
         <v>470001</v>
       </c>
       <c r="B49" s="3">
-        <v>5.8283700000000001E-2</v>
+        <v>3.4736499999999997E-2</v>
       </c>
       <c r="C49" s="3">
-        <v>0.88263000000000003</v>
+        <v>0.243343</v>
       </c>
       <c r="D49" s="3">
-        <v>5.9077499999999998E-2</v>
+        <v>3.4487900000000002E-2</v>
       </c>
       <c r="E49" s="3">
-        <v>0.88592899999999997</v>
+        <v>0.242038</v>
       </c>
       <c r="F49" s="3">
-        <v>5.7783800000000003E-2</v>
+        <v>3.5377100000000002E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>0.88548400000000005</v>
+        <v>0.24632899999999999</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="0"/>
-        <v>5.7783800000000003E-2</v>
+        <v>3.4487900000000002E-2</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="1"/>
-        <v>0.88263000000000003</v>
+        <v>0.242038</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -1894,30 +1894,30 @@
         <v>480001</v>
       </c>
       <c r="B50" s="3">
-        <v>6.0818700000000003E-2</v>
+        <v>3.6222600000000001E-2</v>
       </c>
       <c r="C50" s="3">
-        <v>0.89857799999999999</v>
+        <v>0.25397799999999998</v>
       </c>
       <c r="D50" s="3">
-        <v>5.9761300000000003E-2</v>
+        <v>3.5771499999999998E-2</v>
       </c>
       <c r="E50" s="3">
-        <v>0.90341700000000003</v>
+        <v>0.245504</v>
       </c>
       <c r="F50" s="3">
-        <v>5.9019299999999997E-2</v>
+        <v>3.6971999999999998E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>0.906366</v>
+        <v>0.25180000000000002</v>
       </c>
       <c r="I50" s="3">
         <f t="shared" si="0"/>
-        <v>5.9019299999999997E-2</v>
+        <v>3.5771499999999998E-2</v>
       </c>
       <c r="J50" s="3">
         <f t="shared" si="1"/>
-        <v>0.89857799999999999</v>
+        <v>0.245504</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -1925,30 +1925,30 @@
         <v>490001</v>
       </c>
       <c r="B51" s="3">
-        <v>6.2162500000000002E-2</v>
+        <v>3.9321000000000002E-2</v>
       </c>
       <c r="C51" s="3">
-        <v>0.93411100000000002</v>
+        <v>0.26312600000000003</v>
       </c>
       <c r="D51" s="3">
-        <v>6.1901100000000001E-2</v>
+        <v>3.7161399999999997E-2</v>
       </c>
       <c r="E51" s="3">
-        <v>0.92831200000000003</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="F51" s="3">
-        <v>6.2315200000000001E-2</v>
+        <v>3.7535300000000001E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>0.91958099999999998</v>
+        <v>0.25906800000000002</v>
       </c>
       <c r="I51" s="3">
         <f t="shared" si="0"/>
-        <v>6.1901100000000001E-2</v>
+        <v>3.7161399999999997E-2</v>
       </c>
       <c r="J51" s="3">
         <f t="shared" si="1"/>
-        <v>0.91958099999999998</v>
+        <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -1956,30 +1956,30 @@
         <v>500001</v>
       </c>
       <c r="B52" s="3">
-        <v>6.2713199999999997E-2</v>
+        <v>3.7238300000000002E-2</v>
       </c>
       <c r="C52" s="3">
-        <v>0.95360599999999995</v>
+        <v>0.26731500000000002</v>
       </c>
       <c r="D52" s="3">
-        <v>6.2194899999999997E-2</v>
+        <v>3.7307600000000003E-2</v>
       </c>
       <c r="E52" s="3">
-        <v>0.95219900000000002</v>
+        <v>0.26315100000000002</v>
       </c>
       <c r="F52" s="3">
-        <v>6.1539099999999999E-2</v>
+        <v>3.7613800000000003E-2</v>
       </c>
       <c r="G52" s="3">
-        <v>0.95757700000000001</v>
+        <v>0.26577600000000001</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="0"/>
-        <v>6.1539099999999999E-2</v>
+        <v>3.7238300000000002E-2</v>
       </c>
       <c r="J52" s="3">
         <f t="shared" si="1"/>
-        <v>0.95219900000000002</v>
+        <v>0.26315100000000002</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -1987,30 +1987,30 @@
         <v>510001</v>
       </c>
       <c r="B53" s="3">
-        <v>6.5086199999999997E-2</v>
+        <v>3.8092899999999999E-2</v>
       </c>
       <c r="C53" s="3">
-        <v>0.97325200000000001</v>
+        <v>0.27294000000000002</v>
       </c>
       <c r="D53" s="3">
-        <v>6.4348199999999994E-2</v>
+        <v>3.9374199999999998E-2</v>
       </c>
       <c r="E53" s="3">
-        <v>0.97128400000000004</v>
+        <v>0.26729799999999998</v>
       </c>
       <c r="F53" s="3">
-        <v>6.2947199999999995E-2</v>
+        <v>3.8565099999999998E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>0.97826500000000005</v>
+        <v>0.27487099999999998</v>
       </c>
       <c r="I53" s="3">
         <f t="shared" si="0"/>
-        <v>6.2947199999999995E-2</v>
+        <v>3.8092899999999999E-2</v>
       </c>
       <c r="J53" s="3">
         <f t="shared" si="1"/>
-        <v>0.97128400000000004</v>
+        <v>0.26729799999999998</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2018,30 +2018,30 @@
         <v>520001</v>
       </c>
       <c r="B54" s="3">
-        <v>6.4238600000000007E-2</v>
+        <v>3.9154399999999999E-2</v>
       </c>
       <c r="C54" s="3">
-        <v>1.01407</v>
+        <v>0.28631600000000001</v>
       </c>
       <c r="D54" s="3">
-        <v>6.4561900000000005E-2</v>
+        <v>3.9844999999999998E-2</v>
       </c>
       <c r="E54" s="3">
-        <v>1.0076000000000001</v>
+        <v>0.28018399999999999</v>
       </c>
       <c r="F54" s="3">
-        <v>6.6688800000000006E-2</v>
+        <v>3.9544900000000001E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>1.00708</v>
+        <v>0.28144999999999998</v>
       </c>
       <c r="I54" s="3">
         <f t="shared" si="0"/>
-        <v>6.4238600000000007E-2</v>
+        <v>3.9154399999999999E-2</v>
       </c>
       <c r="J54" s="3">
         <f t="shared" si="1"/>
-        <v>1.00708</v>
+        <v>0.28018399999999999</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2049,30 +2049,30 @@
         <v>530001</v>
       </c>
       <c r="B55" s="3">
-        <v>6.6788700000000006E-2</v>
+        <v>3.9390700000000001E-2</v>
       </c>
       <c r="C55" s="3">
-        <v>1.02041</v>
+        <v>0.295655</v>
       </c>
       <c r="D55" s="3">
-        <v>6.71934E-2</v>
+        <v>4.0320399999999999E-2</v>
       </c>
       <c r="E55" s="3">
-        <v>1.0188999999999999</v>
+        <v>0.28539199999999998</v>
       </c>
       <c r="F55" s="3">
-        <v>6.7238999999999993E-2</v>
+        <v>3.9804399999999997E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>1.01555</v>
+        <v>0.28421099999999999</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="0"/>
-        <v>6.6788700000000006E-2</v>
+        <v>3.9390700000000001E-2</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" si="1"/>
-        <v>1.01555</v>
+        <v>0.28421099999999999</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2080,30 +2080,30 @@
         <v>540001</v>
       </c>
       <c r="B56" s="3">
-        <v>6.8214300000000005E-2</v>
+        <v>3.9897200000000001E-2</v>
       </c>
       <c r="C56" s="3">
-        <v>1.03956</v>
+        <v>0.293769</v>
       </c>
       <c r="D56" s="3">
-        <v>6.7410399999999995E-2</v>
+        <v>4.07379E-2</v>
       </c>
       <c r="E56" s="3">
-        <v>1.0411699999999999</v>
+        <v>0.29387799999999997</v>
       </c>
       <c r="F56" s="3">
-        <v>6.7946900000000005E-2</v>
+        <v>4.03361E-2</v>
       </c>
       <c r="G56" s="3">
-        <v>1.0411600000000001</v>
+        <v>0.29796600000000001</v>
       </c>
       <c r="I56" s="3">
         <f t="shared" si="0"/>
-        <v>6.7410399999999995E-2</v>
+        <v>3.9897200000000001E-2</v>
       </c>
       <c r="J56" s="3">
         <f t="shared" si="1"/>
-        <v>1.03956</v>
+        <v>0.293769</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2111,30 +2111,30 @@
         <v>550001</v>
       </c>
       <c r="B57" s="3">
-        <v>7.0119600000000004E-2</v>
+        <v>4.1285200000000001E-2</v>
       </c>
       <c r="C57" s="3">
-        <v>1.06646</v>
+        <v>0.303178</v>
       </c>
       <c r="D57" s="3">
-        <v>7.0938699999999993E-2</v>
+        <v>4.1721500000000002E-2</v>
       </c>
       <c r="E57" s="3">
-        <v>1.06996</v>
+        <v>0.30456499999999997</v>
       </c>
       <c r="F57" s="3">
-        <v>6.9316900000000001E-2</v>
+        <v>4.1676100000000001E-2</v>
       </c>
       <c r="G57" s="3">
-        <v>1.0670500000000001</v>
+        <v>0.30324299999999998</v>
       </c>
       <c r="I57" s="3">
         <f t="shared" si="0"/>
-        <v>6.9316900000000001E-2</v>
+        <v>4.1285200000000001E-2</v>
       </c>
       <c r="J57" s="3">
         <f t="shared" si="1"/>
-        <v>1.06646</v>
+        <v>0.303178</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2142,30 +2142,30 @@
         <v>560001</v>
       </c>
       <c r="B58" s="3">
-        <v>7.2721300000000003E-2</v>
+        <v>4.1762100000000003E-2</v>
       </c>
       <c r="C58" s="3">
-        <v>1.08406</v>
+        <v>0.30630099999999999</v>
       </c>
       <c r="D58" s="3">
-        <v>7.0975499999999997E-2</v>
+        <v>4.2198600000000003E-2</v>
       </c>
       <c r="E58" s="3">
-        <v>1.08677</v>
+        <v>0.30907400000000002</v>
       </c>
       <c r="F58" s="3">
-        <v>7.1724999999999997E-2</v>
+        <v>4.22762E-2</v>
       </c>
       <c r="G58" s="3">
-        <v>1.0912599999999999</v>
+        <v>0.31178099999999997</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="0"/>
-        <v>7.0975499999999997E-2</v>
+        <v>4.1762100000000003E-2</v>
       </c>
       <c r="J58" s="3">
         <f t="shared" si="1"/>
-        <v>1.08406</v>
+        <v>0.30630099999999999</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2173,30 +2173,30 @@
         <v>570001</v>
       </c>
       <c r="B59" s="3">
-        <v>7.1807700000000002E-2</v>
+        <v>4.1832500000000002E-2</v>
       </c>
       <c r="C59" s="3">
-        <v>1.1139300000000001</v>
+        <v>0.31927499999999998</v>
       </c>
       <c r="D59" s="3">
-        <v>7.2373099999999996E-2</v>
+        <v>4.2632700000000003E-2</v>
       </c>
       <c r="E59" s="3">
-        <v>1.1144000000000001</v>
+        <v>0.31793900000000003</v>
       </c>
       <c r="F59" s="3">
-        <v>7.1685399999999996E-2</v>
+        <v>4.2291299999999997E-2</v>
       </c>
       <c r="G59" s="3">
-        <v>1.11707</v>
+        <v>0.32022099999999998</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="0"/>
-        <v>7.1685399999999996E-2</v>
+        <v>4.1832500000000002E-2</v>
       </c>
       <c r="J59" s="3">
         <f t="shared" si="1"/>
-        <v>1.1139300000000001</v>
+        <v>0.31793900000000003</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2204,30 +2204,30 @@
         <v>580001</v>
       </c>
       <c r="B60" s="3">
-        <v>7.3518899999999998E-2</v>
+        <v>4.2423700000000002E-2</v>
       </c>
       <c r="C60" s="3">
-        <v>1.1383300000000001</v>
+        <v>0.327262</v>
       </c>
       <c r="D60" s="3">
-        <v>7.3809200000000005E-2</v>
+        <v>4.2891699999999998E-2</v>
       </c>
       <c r="E60" s="3">
-        <v>1.13463</v>
+        <v>0.32472800000000002</v>
       </c>
       <c r="F60" s="3">
-        <v>7.4005500000000002E-2</v>
+        <v>4.2545100000000002E-2</v>
       </c>
       <c r="G60" s="3">
-        <v>1.1369800000000001</v>
+        <v>0.32191500000000001</v>
       </c>
       <c r="I60" s="3">
         <f t="shared" si="0"/>
-        <v>7.3518899999999998E-2</v>
+        <v>4.2423700000000002E-2</v>
       </c>
       <c r="J60" s="3">
         <f t="shared" si="1"/>
-        <v>1.13463</v>
+        <v>0.32191500000000001</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2235,30 +2235,30 @@
         <v>590001</v>
       </c>
       <c r="B61" s="3">
-        <v>7.4423699999999995E-2</v>
+        <v>4.3937799999999999E-2</v>
       </c>
       <c r="C61" s="3">
-        <v>1.1702900000000001</v>
+        <v>0.33393</v>
       </c>
       <c r="D61" s="3">
-        <v>7.6016700000000006E-2</v>
+        <v>4.43956E-2</v>
       </c>
       <c r="E61" s="3">
-        <v>1.1751100000000001</v>
+        <v>0.32914599999999999</v>
       </c>
       <c r="F61" s="3">
-        <v>7.4447100000000002E-2</v>
+        <v>4.4084900000000003E-2</v>
       </c>
       <c r="G61" s="3">
-        <v>1.1532100000000001</v>
+        <v>0.33349600000000001</v>
       </c>
       <c r="I61" s="3">
         <f t="shared" si="0"/>
-        <v>7.4423699999999995E-2</v>
+        <v>4.3937799999999999E-2</v>
       </c>
       <c r="J61" s="3">
         <f t="shared" si="1"/>
-        <v>1.1532100000000001</v>
+        <v>0.32914599999999999</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2266,30 +2266,30 @@
         <v>600001</v>
       </c>
       <c r="B62" s="3">
-        <v>7.75893E-2</v>
+        <v>4.3688299999999999E-2</v>
       </c>
       <c r="C62" s="3">
-        <v>1.1810700000000001</v>
+        <v>0.34943400000000002</v>
       </c>
       <c r="D62" s="3">
-        <v>7.5748899999999994E-2</v>
+        <v>4.3876400000000003E-2</v>
       </c>
       <c r="E62" s="3">
-        <v>1.1844300000000001</v>
+        <v>0.336173</v>
       </c>
       <c r="F62" s="3">
-        <v>7.5753799999999996E-2</v>
+        <v>4.3732500000000001E-2</v>
       </c>
       <c r="G62" s="3">
-        <v>1.1753</v>
+        <v>0.33681699999999998</v>
       </c>
       <c r="I62" s="3">
         <f t="shared" si="0"/>
-        <v>7.5748899999999994E-2</v>
+        <v>4.3688299999999999E-2</v>
       </c>
       <c r="J62" s="3">
         <f t="shared" si="1"/>
-        <v>1.1753</v>
+        <v>0.336173</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2297,30 +2297,30 @@
         <v>610001</v>
       </c>
       <c r="B63" s="3">
-        <v>7.8309199999999995E-2</v>
+        <v>4.5385399999999999E-2</v>
       </c>
       <c r="C63" s="3">
-        <v>1.21468</v>
+        <v>0.34578300000000001</v>
       </c>
       <c r="D63" s="3">
-        <v>7.7129900000000001E-2</v>
+        <v>4.5897399999999998E-2</v>
       </c>
       <c r="E63" s="3">
-        <v>1.20749</v>
+        <v>0.34554200000000002</v>
       </c>
       <c r="F63" s="3">
-        <v>7.9797999999999994E-2</v>
+        <v>4.5574299999999998E-2</v>
       </c>
       <c r="G63" s="3">
-        <v>1.20509</v>
+        <v>0.34810000000000002</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="0"/>
-        <v>7.7129900000000001E-2</v>
+        <v>4.5385399999999999E-2</v>
       </c>
       <c r="J63" s="3">
         <f t="shared" si="1"/>
-        <v>1.20509</v>
+        <v>0.34554200000000002</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2328,30 +2328,30 @@
         <v>620001</v>
       </c>
       <c r="B64" s="3">
-        <v>7.8109100000000001E-2</v>
+        <v>4.5912700000000001E-2</v>
       </c>
       <c r="C64" s="3">
-        <v>1.2295499999999999</v>
+        <v>0.35825400000000002</v>
       </c>
       <c r="D64" s="3">
-        <v>7.9265199999999994E-2</v>
+        <v>4.5850500000000002E-2</v>
       </c>
       <c r="E64" s="3">
-        <v>1.2319</v>
+        <v>0.356875</v>
       </c>
       <c r="F64" s="3">
-        <v>7.9138500000000001E-2</v>
+        <v>4.5814899999999999E-2</v>
       </c>
       <c r="G64" s="3">
-        <v>1.22234</v>
+        <v>0.36001300000000003</v>
       </c>
       <c r="I64" s="3">
         <f t="shared" si="0"/>
-        <v>7.8109100000000001E-2</v>
+        <v>4.5814899999999999E-2</v>
       </c>
       <c r="J64" s="3">
         <f t="shared" si="1"/>
-        <v>1.22234</v>
+        <v>0.356875</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2359,30 +2359,30 @@
         <v>630001</v>
       </c>
       <c r="B65" s="3">
-        <v>8.1133700000000003E-2</v>
+        <v>4.6363599999999998E-2</v>
       </c>
       <c r="C65" s="3">
-        <v>1.2624299999999999</v>
+        <v>0.36695699999999998</v>
       </c>
       <c r="D65" s="3">
-        <v>8.0651E-2</v>
+        <v>4.6762499999999999E-2</v>
       </c>
       <c r="E65" s="3">
-        <v>1.2634700000000001</v>
+        <v>0.36112499999999997</v>
       </c>
       <c r="F65" s="3">
-        <v>8.0114500000000005E-2</v>
+        <v>4.6715399999999997E-2</v>
       </c>
       <c r="G65" s="3">
-        <v>1.25488</v>
+        <v>0.36728899999999998</v>
       </c>
       <c r="I65" s="3">
         <f t="shared" si="0"/>
-        <v>8.0114500000000005E-2</v>
+        <v>4.6363599999999998E-2</v>
       </c>
       <c r="J65" s="3">
         <f t="shared" si="1"/>
-        <v>1.25488</v>
+        <v>0.36112499999999997</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2390,30 +2390,30 @@
         <v>640001</v>
       </c>
       <c r="B66" s="3">
-        <v>8.2492899999999994E-2</v>
+        <v>4.7800200000000001E-2</v>
       </c>
       <c r="C66" s="3">
-        <v>1.28833</v>
+        <v>0.36920900000000001</v>
       </c>
       <c r="D66" s="3">
-        <v>8.2323599999999997E-2</v>
+        <v>4.8030900000000001E-2</v>
       </c>
       <c r="E66" s="3">
-        <v>1.2852399999999999</v>
+        <v>0.36684899999999998</v>
       </c>
       <c r="F66" s="3">
-        <v>8.1671099999999996E-2</v>
+        <v>4.7924799999999997E-2</v>
       </c>
       <c r="G66" s="3">
-        <v>1.2757000000000001</v>
+        <v>0.36928800000000001</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="0"/>
-        <v>8.1671099999999996E-2</v>
+        <v>4.7800200000000001E-2</v>
       </c>
       <c r="J66" s="3">
         <f t="shared" si="1"/>
-        <v>1.2757000000000001</v>
+        <v>0.36684899999999998</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2421,30 +2421,30 @@
         <v>650001</v>
       </c>
       <c r="B67" s="3">
-        <v>8.2336599999999996E-2</v>
+        <v>4.8531699999999997E-2</v>
       </c>
       <c r="C67" s="3">
-        <v>1.30707</v>
+        <v>0.38485999999999998</v>
       </c>
       <c r="D67" s="3">
-        <v>8.3664000000000002E-2</v>
+        <v>4.8903700000000001E-2</v>
       </c>
       <c r="E67" s="3">
-        <v>1.3041199999999999</v>
+        <v>0.377195</v>
       </c>
       <c r="F67" s="3">
-        <v>8.20438E-2</v>
+        <v>4.8728E-2</v>
       </c>
       <c r="G67" s="3">
-        <v>1.31349</v>
+        <v>0.37814500000000001</v>
       </c>
       <c r="I67" s="3">
         <f t="shared" ref="I67:I101" si="2">MIN(B67,D67,F67)</f>
-        <v>8.20438E-2</v>
+        <v>4.8531699999999997E-2</v>
       </c>
       <c r="J67" s="3">
         <f t="shared" ref="J67:J101" si="3">MIN(C67,E67,G67)</f>
-        <v>1.3041199999999999</v>
+        <v>0.377195</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2452,30 +2452,30 @@
         <v>660001</v>
       </c>
       <c r="B68" s="3">
-        <v>8.6694099999999996E-2</v>
+        <v>4.8613099999999999E-2</v>
       </c>
       <c r="C68" s="3">
-        <v>1.3231999999999999</v>
+        <v>0.400169</v>
       </c>
       <c r="D68" s="3">
-        <v>8.3955299999999997E-2</v>
+        <v>4.8455999999999999E-2</v>
       </c>
       <c r="E68" s="3">
-        <v>1.32595</v>
+        <v>0.38924900000000001</v>
       </c>
       <c r="F68" s="3">
-        <v>8.3748799999999998E-2</v>
+        <v>4.87403E-2</v>
       </c>
       <c r="G68" s="3">
-        <v>1.3252200000000001</v>
+        <v>0.383544</v>
       </c>
       <c r="I68" s="3">
         <f t="shared" si="2"/>
-        <v>8.3748799999999998E-2</v>
+        <v>4.8455999999999999E-2</v>
       </c>
       <c r="J68" s="3">
         <f t="shared" si="3"/>
-        <v>1.3231999999999999</v>
+        <v>0.383544</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2483,30 +2483,30 @@
         <v>670001</v>
       </c>
       <c r="B69" s="3">
-        <v>8.5686700000000005E-2</v>
+        <v>5.0188700000000003E-2</v>
       </c>
       <c r="C69" s="3">
-        <v>1.34755</v>
+        <v>0.39455400000000002</v>
       </c>
       <c r="D69" s="3">
-        <v>8.56465E-2</v>
+        <v>5.0261599999999997E-2</v>
       </c>
       <c r="E69" s="3">
-        <v>1.3556699999999999</v>
+        <v>0.39574799999999999</v>
       </c>
       <c r="F69" s="3">
-        <v>8.6739999999999998E-2</v>
+        <v>5.0792499999999997E-2</v>
       </c>
       <c r="G69" s="3">
-        <v>1.3656699999999999</v>
+        <v>0.39699400000000001</v>
       </c>
       <c r="I69" s="3">
         <f t="shared" si="2"/>
-        <v>8.56465E-2</v>
+        <v>5.0188700000000003E-2</v>
       </c>
       <c r="J69" s="3">
         <f t="shared" si="3"/>
-        <v>1.34755</v>
+        <v>0.39455400000000002</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -2514,30 +2514,30 @@
         <v>680001</v>
       </c>
       <c r="B70" s="3">
-        <v>8.9561100000000005E-2</v>
+        <v>5.1197899999999998E-2</v>
       </c>
       <c r="C70" s="3">
-        <v>1.3732899999999999</v>
+        <v>0.40516099999999999</v>
       </c>
       <c r="D70" s="3">
-        <v>8.7320700000000001E-2</v>
+        <v>5.1181999999999998E-2</v>
       </c>
       <c r="E70" s="3">
-        <v>1.3763300000000001</v>
+        <v>0.40834500000000001</v>
       </c>
       <c r="F70" s="3">
-        <v>8.6695700000000001E-2</v>
+        <v>5.1626499999999999E-2</v>
       </c>
       <c r="G70" s="3">
-        <v>1.3758699999999999</v>
+        <v>0.40735700000000002</v>
       </c>
       <c r="I70" s="3">
         <f t="shared" si="2"/>
-        <v>8.6695700000000001E-2</v>
+        <v>5.1181999999999998E-2</v>
       </c>
       <c r="J70" s="3">
         <f t="shared" si="3"/>
-        <v>1.3732899999999999</v>
+        <v>0.40516099999999999</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -2545,30 +2545,30 @@
         <v>690001</v>
       </c>
       <c r="B71" s="3">
-        <v>8.7271600000000005E-2</v>
+        <v>5.0263799999999997E-2</v>
       </c>
       <c r="C71" s="3">
-        <v>1.39222</v>
+        <v>0.40997400000000001</v>
       </c>
       <c r="D71" s="3">
-        <v>9.0187500000000004E-2</v>
+        <v>5.0485599999999999E-2</v>
       </c>
       <c r="E71" s="3">
-        <v>1.4043600000000001</v>
+        <v>0.40598800000000002</v>
       </c>
       <c r="F71" s="3">
-        <v>8.6629399999999995E-2</v>
+        <v>5.0528400000000001E-2</v>
       </c>
       <c r="G71" s="3">
-        <v>1.40038</v>
+        <v>0.41149799999999997</v>
       </c>
       <c r="I71" s="3">
         <f t="shared" si="2"/>
-        <v>8.6629399999999995E-2</v>
+        <v>5.0263799999999997E-2</v>
       </c>
       <c r="J71" s="3">
         <f t="shared" si="3"/>
-        <v>1.39222</v>
+        <v>0.40598800000000002</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -2576,30 +2576,30 @@
         <v>700001</v>
       </c>
       <c r="B72" s="3">
-        <v>9.2382699999999998E-2</v>
+        <v>5.24156E-2</v>
       </c>
       <c r="C72" s="3">
-        <v>1.4295899999999999</v>
+        <v>0.42180800000000002</v>
       </c>
       <c r="D72" s="3">
-        <v>9.0623099999999998E-2</v>
+        <v>5.2233599999999998E-2</v>
       </c>
       <c r="E72" s="3">
-        <v>1.4320999999999999</v>
+        <v>0.41749399999999998</v>
       </c>
       <c r="F72" s="3">
-        <v>8.8311700000000007E-2</v>
+        <v>5.2570800000000001E-2</v>
       </c>
       <c r="G72" s="3">
-        <v>1.4192899999999999</v>
+        <v>0.42142400000000002</v>
       </c>
       <c r="I72" s="3">
         <f t="shared" si="2"/>
-        <v>8.8311700000000007E-2</v>
+        <v>5.2233599999999998E-2</v>
       </c>
       <c r="J72" s="3">
         <f t="shared" si="3"/>
-        <v>1.4192899999999999</v>
+        <v>0.41749399999999998</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -2607,30 +2607,30 @@
         <v>710001</v>
       </c>
       <c r="B73" s="3">
-        <v>9.1572399999999998E-2</v>
+        <v>5.3630299999999999E-2</v>
       </c>
       <c r="C73" s="3">
-        <v>1.5804499999999999</v>
+        <v>0.42893599999999998</v>
       </c>
       <c r="D73" s="3">
-        <v>9.1236100000000001E-2</v>
+        <v>5.4500800000000002E-2</v>
       </c>
       <c r="E73" s="3">
-        <v>1.4442999999999999</v>
+        <v>0.42712299999999997</v>
       </c>
       <c r="F73" s="3">
-        <v>9.1211700000000007E-2</v>
+        <v>5.35051E-2</v>
       </c>
       <c r="G73" s="3">
-        <v>1.44187</v>
+        <v>0.43388900000000002</v>
       </c>
       <c r="I73" s="3">
         <f t="shared" si="2"/>
-        <v>9.1211700000000007E-2</v>
+        <v>5.35051E-2</v>
       </c>
       <c r="J73" s="3">
         <f t="shared" si="3"/>
-        <v>1.44187</v>
+        <v>0.42712299999999997</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -2638,30 +2638,30 @@
         <v>720001</v>
       </c>
       <c r="B74" s="3">
-        <v>9.1550599999999996E-2</v>
+        <v>5.3061499999999998E-2</v>
       </c>
       <c r="C74" s="3">
-        <v>1.4797</v>
+        <v>0.44810499999999998</v>
       </c>
       <c r="D74" s="3">
-        <v>9.1366799999999998E-2</v>
+        <v>5.3497599999999999E-2</v>
       </c>
       <c r="E74" s="3">
-        <v>1.5009399999999999</v>
+        <v>0.43598500000000001</v>
       </c>
       <c r="F74" s="3">
-        <v>9.1227699999999995E-2</v>
+        <v>5.3547600000000001E-2</v>
       </c>
       <c r="G74" s="3">
-        <v>1.48282</v>
+        <v>0.44037500000000002</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="2"/>
-        <v>9.1227699999999995E-2</v>
+        <v>5.3061499999999998E-2</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" si="3"/>
-        <v>1.4797</v>
+        <v>0.43598500000000001</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -2669,30 +2669,30 @@
         <v>730001</v>
       </c>
       <c r="B75" s="3">
-        <v>9.3971899999999997E-2</v>
+        <v>5.5535099999999997E-2</v>
       </c>
       <c r="C75" s="3">
-        <v>1.49701</v>
+        <v>0.44352799999999998</v>
       </c>
       <c r="D75" s="3">
-        <v>9.5774399999999996E-2</v>
+        <v>5.6521099999999998E-2</v>
       </c>
       <c r="E75" s="3">
-        <v>1.4956799999999999</v>
+        <v>0.43970300000000001</v>
       </c>
       <c r="F75" s="3">
-        <v>9.3474699999999994E-2</v>
+        <v>5.5412299999999998E-2</v>
       </c>
       <c r="G75" s="3">
-        <v>1.49797</v>
+        <v>0.445886</v>
       </c>
       <c r="I75" s="3">
         <f t="shared" si="2"/>
-        <v>9.3474699999999994E-2</v>
+        <v>5.5412299999999998E-2</v>
       </c>
       <c r="J75" s="3">
         <f t="shared" si="3"/>
-        <v>1.4956799999999999</v>
+        <v>0.43970300000000001</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -2700,30 +2700,30 @@
         <v>740001</v>
       </c>
       <c r="B76" s="3">
-        <v>9.6438999999999997E-2</v>
+        <v>5.5423600000000003E-2</v>
       </c>
       <c r="C76" s="3">
-        <v>1.5410999999999999</v>
+        <v>0.45160899999999998</v>
       </c>
       <c r="D76" s="3">
-        <v>9.6790399999999999E-2</v>
+        <v>5.56537E-2</v>
       </c>
       <c r="E76" s="3">
-        <v>1.5200499999999999</v>
+        <v>0.45745799999999998</v>
       </c>
       <c r="F76" s="3">
-        <v>9.4887399999999997E-2</v>
+        <v>5.5563000000000001E-2</v>
       </c>
       <c r="G76" s="3">
-        <v>1.51607</v>
+        <v>0.45826600000000001</v>
       </c>
       <c r="I76" s="3">
         <f t="shared" si="2"/>
-        <v>9.4887399999999997E-2</v>
+        <v>5.5423600000000003E-2</v>
       </c>
       <c r="J76" s="3">
         <f t="shared" si="3"/>
-        <v>1.51607</v>
+        <v>0.45160899999999998</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -2731,30 +2731,30 @@
         <v>750001</v>
       </c>
       <c r="B77" s="3">
-        <v>9.68199E-2</v>
+        <v>5.6795900000000003E-2</v>
       </c>
       <c r="C77" s="3">
-        <v>1.5777300000000001</v>
+        <v>0.465534</v>
       </c>
       <c r="D77" s="3">
-        <v>9.7953299999999993E-2</v>
+        <v>5.6569800000000003E-2</v>
       </c>
       <c r="E77" s="3">
-        <v>1.54674</v>
+        <v>0.46200400000000003</v>
       </c>
       <c r="F77" s="3">
-        <v>9.8548700000000003E-2</v>
+        <v>5.6834700000000002E-2</v>
       </c>
       <c r="G77" s="3">
-        <v>1.5337000000000001</v>
+        <v>0.45885399999999998</v>
       </c>
       <c r="I77" s="3">
         <f t="shared" si="2"/>
-        <v>9.68199E-2</v>
+        <v>5.6569800000000003E-2</v>
       </c>
       <c r="J77" s="3">
         <f t="shared" si="3"/>
-        <v>1.5337000000000001</v>
+        <v>0.45885399999999998</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -2762,30 +2762,30 @@
         <v>760001</v>
       </c>
       <c r="B78" s="3">
-        <v>9.7771999999999998E-2</v>
+        <v>5.6761399999999997E-2</v>
       </c>
       <c r="C78" s="3">
-        <v>1.5707800000000001</v>
+        <v>0.49169600000000002</v>
       </c>
       <c r="D78" s="3">
-        <v>9.6401500000000001E-2</v>
+        <v>5.7038600000000002E-2</v>
       </c>
       <c r="E78" s="3">
-        <v>1.5682799999999999</v>
+        <v>0.46467999999999998</v>
       </c>
       <c r="F78" s="3">
-        <v>9.9308800000000003E-2</v>
+        <v>5.6504199999999997E-2</v>
       </c>
       <c r="G78" s="3">
-        <v>1.56528</v>
+        <v>0.46740999999999999</v>
       </c>
       <c r="I78" s="3">
         <f t="shared" si="2"/>
-        <v>9.6401500000000001E-2</v>
+        <v>5.6504199999999997E-2</v>
       </c>
       <c r="J78" s="3">
         <f t="shared" si="3"/>
-        <v>1.56528</v>
+        <v>0.46467999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -2793,30 +2793,30 @@
         <v>770001</v>
       </c>
       <c r="B79" s="3">
-        <v>9.8371899999999998E-2</v>
+        <v>5.8846599999999999E-2</v>
       </c>
       <c r="C79" s="3">
-        <v>1.5973200000000001</v>
+        <v>0.49275799999999997</v>
       </c>
       <c r="D79" s="3">
-        <v>0.101939</v>
+        <v>5.8838799999999997E-2</v>
       </c>
       <c r="E79" s="3">
-        <v>1.59694</v>
+        <v>0.481294</v>
       </c>
       <c r="F79" s="3">
-        <v>9.92788E-2</v>
+        <v>5.9304200000000001E-2</v>
       </c>
       <c r="G79" s="3">
-        <v>1.6116600000000001</v>
+        <v>0.48041200000000001</v>
       </c>
       <c r="I79" s="3">
         <f t="shared" si="2"/>
-        <v>9.8371899999999998E-2</v>
+        <v>5.8838799999999997E-2</v>
       </c>
       <c r="J79" s="3">
         <f t="shared" si="3"/>
-        <v>1.59694</v>
+        <v>0.48041200000000001</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -2824,30 +2824,30 @@
         <v>780001</v>
       </c>
       <c r="B80" s="3">
-        <v>0.10023600000000001</v>
+        <v>5.9803000000000002E-2</v>
       </c>
       <c r="C80" s="3">
-        <v>1.62964</v>
+        <v>0.49065999999999999</v>
       </c>
       <c r="D80" s="3">
-        <v>0.102146</v>
+        <v>5.9800199999999998E-2</v>
       </c>
       <c r="E80" s="3">
-        <v>1.63012</v>
+        <v>0.48208800000000002</v>
       </c>
       <c r="F80" s="3">
-        <v>0.101101</v>
+        <v>5.9537100000000003E-2</v>
       </c>
       <c r="G80" s="3">
-        <v>1.63063</v>
+        <v>0.48699700000000001</v>
       </c>
       <c r="I80" s="3">
         <f t="shared" si="2"/>
-        <v>0.10023600000000001</v>
+        <v>5.9537100000000003E-2</v>
       </c>
       <c r="J80" s="3">
         <f t="shared" si="3"/>
-        <v>1.62964</v>
+        <v>0.48208800000000002</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -2855,30 +2855,30 @@
         <v>790001</v>
       </c>
       <c r="B81" s="3">
-        <v>0.101262</v>
+        <v>6.0308100000000003E-2</v>
       </c>
       <c r="C81" s="3">
-        <v>1.6479900000000001</v>
+        <v>0.50046000000000002</v>
       </c>
       <c r="D81" s="3">
-        <v>0.104294</v>
+        <v>6.00025E-2</v>
       </c>
       <c r="E81" s="3">
-        <v>1.6440999999999999</v>
+        <v>0.49591099999999999</v>
       </c>
       <c r="F81" s="3">
-        <v>0.101135</v>
+        <v>5.96205E-2</v>
       </c>
       <c r="G81" s="3">
-        <v>1.6363700000000001</v>
+        <v>0.49913000000000002</v>
       </c>
       <c r="I81" s="3">
         <f t="shared" si="2"/>
-        <v>0.101135</v>
+        <v>5.96205E-2</v>
       </c>
       <c r="J81" s="3">
         <f t="shared" si="3"/>
-        <v>1.6363700000000001</v>
+        <v>0.49591099999999999</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -2886,30 +2886,30 @@
         <v>800001</v>
       </c>
       <c r="B82" s="3">
-        <v>0.102992</v>
+        <v>6.1728600000000002E-2</v>
       </c>
       <c r="C82" s="3">
-        <v>1.6747000000000001</v>
+        <v>0.50559600000000005</v>
       </c>
       <c r="D82" s="3">
-        <v>0.104805</v>
+        <v>6.1881800000000001E-2</v>
       </c>
       <c r="E82" s="3">
-        <v>1.6824600000000001</v>
+        <v>0.50281200000000004</v>
       </c>
       <c r="F82" s="3">
-        <v>0.10378800000000001</v>
+        <v>6.1651999999999998E-2</v>
       </c>
       <c r="G82" s="3">
-        <v>1.6878299999999999</v>
+        <v>0.50519400000000003</v>
       </c>
       <c r="I82" s="3">
         <f t="shared" si="2"/>
-        <v>0.102992</v>
+        <v>6.1651999999999998E-2</v>
       </c>
       <c r="J82" s="3">
         <f t="shared" si="3"/>
-        <v>1.6747000000000001</v>
+        <v>0.50281200000000004</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -2917,30 +2917,30 @@
         <v>810001</v>
       </c>
       <c r="B83" s="3">
-        <v>0.104336</v>
+        <v>6.1162099999999997E-2</v>
       </c>
       <c r="C83" s="3">
-        <v>1.6963600000000001</v>
+        <v>0.51818600000000004</v>
       </c>
       <c r="D83" s="3">
-        <v>0.104092</v>
+        <v>6.1334600000000003E-2</v>
       </c>
       <c r="E83" s="3">
-        <v>1.7017199999999999</v>
+        <v>0.51015600000000005</v>
       </c>
       <c r="F83" s="3">
-        <v>0.105072</v>
+        <v>6.1334399999999997E-2</v>
       </c>
       <c r="G83" s="3">
-        <v>1.6983999999999999</v>
+        <v>0.51376599999999994</v>
       </c>
       <c r="I83" s="3">
         <f t="shared" si="2"/>
-        <v>0.104092</v>
+        <v>6.1162099999999997E-2</v>
       </c>
       <c r="J83" s="3">
         <f t="shared" si="3"/>
-        <v>1.6963600000000001</v>
+        <v>0.51015600000000005</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -2948,30 +2948,30 @@
         <v>820001</v>
       </c>
       <c r="B84" s="3">
-        <v>0.107556</v>
+        <v>6.17913E-2</v>
       </c>
       <c r="C84" s="3">
-        <v>1.72739</v>
+        <v>0.52521099999999998</v>
       </c>
       <c r="D84" s="3">
-        <v>0.108946</v>
+        <v>6.1681E-2</v>
       </c>
       <c r="E84" s="3">
-        <v>1.7238100000000001</v>
+        <v>0.53805800000000004</v>
       </c>
       <c r="F84" s="3">
-        <v>0.10933900000000001</v>
+        <v>6.2551599999999999E-2</v>
       </c>
       <c r="G84" s="3">
-        <v>1.7312700000000001</v>
+        <v>0.52565499999999998</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" si="2"/>
-        <v>0.107556</v>
+        <v>6.1681E-2</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" si="3"/>
-        <v>1.7238100000000001</v>
+        <v>0.52521099999999998</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -2979,30 +2979,30 @@
         <v>830001</v>
       </c>
       <c r="B85" s="3">
-        <v>0.10671899999999999</v>
+        <v>6.2302200000000002E-2</v>
       </c>
       <c r="C85" s="3">
-        <v>1.7519</v>
+        <v>0.53159699999999999</v>
       </c>
       <c r="D85" s="3">
-        <v>0.109038</v>
+        <v>6.2372799999999999E-2</v>
       </c>
       <c r="E85" s="3">
-        <v>1.7481199999999999</v>
+        <v>0.53860600000000003</v>
       </c>
       <c r="F85" s="3">
-        <v>0.10865</v>
+        <v>6.2865400000000002E-2</v>
       </c>
       <c r="G85" s="3">
-        <v>1.73668</v>
+        <v>0.56524399999999997</v>
       </c>
       <c r="I85" s="3">
         <f t="shared" si="2"/>
-        <v>0.10671899999999999</v>
+        <v>6.2302200000000002E-2</v>
       </c>
       <c r="J85" s="3">
         <f t="shared" si="3"/>
-        <v>1.73668</v>
+        <v>0.53159699999999999</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3010,30 +3010,30 @@
         <v>840001</v>
       </c>
       <c r="B86" s="3">
-        <v>0.108391</v>
+        <v>6.30685E-2</v>
       </c>
       <c r="C86" s="3">
-        <v>1.7827</v>
+        <v>0.54436200000000001</v>
       </c>
       <c r="D86" s="3">
-        <v>0.108557</v>
+        <v>6.3170699999999996E-2</v>
       </c>
       <c r="E86" s="3">
-        <v>1.77518</v>
+        <v>0.540072</v>
       </c>
       <c r="F86" s="3">
-        <v>0.10897900000000001</v>
+        <v>6.34213E-2</v>
       </c>
       <c r="G86" s="3">
-        <v>1.77078</v>
+        <v>0.541516</v>
       </c>
       <c r="I86" s="3">
         <f t="shared" si="2"/>
-        <v>0.108391</v>
+        <v>6.30685E-2</v>
       </c>
       <c r="J86" s="3">
         <f t="shared" si="3"/>
-        <v>1.77078</v>
+        <v>0.540072</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3041,30 +3041,30 @@
         <v>850001</v>
       </c>
       <c r="B87" s="3">
-        <v>0.11012</v>
+        <v>6.3030699999999995E-2</v>
       </c>
       <c r="C87" s="3">
-        <v>1.80914</v>
+        <v>0.55446600000000001</v>
       </c>
       <c r="D87" s="3">
-        <v>0.107445</v>
+        <v>6.3235100000000002E-2</v>
       </c>
       <c r="E87" s="3">
-        <v>1.8012999999999999</v>
+        <v>0.54347699999999999</v>
       </c>
       <c r="F87" s="3">
-        <v>0.112482</v>
+        <v>6.2834600000000004E-2</v>
       </c>
       <c r="G87" s="3">
-        <v>1.79593</v>
+        <v>0.54695499999999997</v>
       </c>
       <c r="I87" s="3">
         <f t="shared" si="2"/>
-        <v>0.107445</v>
+        <v>6.2834600000000004E-2</v>
       </c>
       <c r="J87" s="3">
         <f t="shared" si="3"/>
-        <v>1.79593</v>
+        <v>0.54347699999999999</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3072,30 +3072,30 @@
         <v>860001</v>
       </c>
       <c r="B88" s="3">
-        <v>0.111441</v>
+        <v>6.5169299999999999E-2</v>
       </c>
       <c r="C88" s="3">
-        <v>1.8282499999999999</v>
+        <v>0.56613199999999997</v>
       </c>
       <c r="D88" s="3">
-        <v>0.113063</v>
+        <v>6.5841700000000003E-2</v>
       </c>
       <c r="E88" s="3">
-        <v>1.8256600000000001</v>
+        <v>0.55428100000000002</v>
       </c>
       <c r="F88" s="3">
-        <v>0.111252</v>
+        <v>6.5528799999999998E-2</v>
       </c>
       <c r="G88" s="3">
-        <v>1.82544</v>
+        <v>0.558778</v>
       </c>
       <c r="I88" s="3">
         <f t="shared" si="2"/>
-        <v>0.111252</v>
+        <v>6.5169299999999999E-2</v>
       </c>
       <c r="J88" s="3">
         <f t="shared" si="3"/>
-        <v>1.82544</v>
+        <v>0.55428100000000002</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3103,30 +3103,30 @@
         <v>870001</v>
       </c>
       <c r="B89" s="3">
-        <v>0.11280800000000001</v>
+        <v>6.5836800000000001E-2</v>
       </c>
       <c r="C89" s="3">
-        <v>1.8446100000000001</v>
+        <v>0.56658799999999998</v>
       </c>
       <c r="D89" s="3">
-        <v>0.114325</v>
+        <v>6.6073400000000004E-2</v>
       </c>
       <c r="E89" s="3">
-        <v>1.8520399999999999</v>
+        <v>0.57186499999999996</v>
       </c>
       <c r="F89" s="3">
-        <v>0.11327</v>
+        <v>6.60771E-2</v>
       </c>
       <c r="G89" s="3">
-        <v>1.83172</v>
+        <v>0.57784000000000002</v>
       </c>
       <c r="I89" s="3">
         <f t="shared" si="2"/>
-        <v>0.11280800000000001</v>
+        <v>6.5836800000000001E-2</v>
       </c>
       <c r="J89" s="3">
         <f t="shared" si="3"/>
-        <v>1.83172</v>
+        <v>0.56658799999999998</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3134,30 +3134,30 @@
         <v>880001</v>
       </c>
       <c r="B90" s="3">
-        <v>0.11314399999999999</v>
+        <v>6.6538100000000003E-2</v>
       </c>
       <c r="C90" s="3">
-        <v>1.8895299999999999</v>
+        <v>0.58299000000000001</v>
       </c>
       <c r="D90" s="3">
-        <v>0.115957</v>
+        <v>6.6876699999999997E-2</v>
       </c>
       <c r="E90" s="3">
-        <v>1.8862300000000001</v>
+        <v>0.57194999999999996</v>
       </c>
       <c r="F90" s="3">
-        <v>0.113584</v>
+        <v>6.6308199999999998E-2</v>
       </c>
       <c r="G90" s="3">
-        <v>1.8756699999999999</v>
+        <v>0.57624399999999998</v>
       </c>
       <c r="I90" s="3">
         <f t="shared" si="2"/>
-        <v>0.11314399999999999</v>
+        <v>6.6308199999999998E-2</v>
       </c>
       <c r="J90" s="3">
         <f t="shared" si="3"/>
-        <v>1.8756699999999999</v>
+        <v>0.57194999999999996</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3165,30 +3165,30 @@
         <v>890001</v>
       </c>
       <c r="B91" s="3">
-        <v>0.114758</v>
+        <v>6.7297399999999993E-2</v>
       </c>
       <c r="C91" s="3">
-        <v>1.9056599999999999</v>
+        <v>0.59207100000000001</v>
       </c>
       <c r="D91" s="3">
-        <v>0.119945</v>
+        <v>6.76065E-2</v>
       </c>
       <c r="E91" s="3">
-        <v>1.90882</v>
+        <v>0.58662599999999998</v>
       </c>
       <c r="F91" s="3">
-        <v>0.11676499999999999</v>
+        <v>6.7509100000000002E-2</v>
       </c>
       <c r="G91" s="3">
-        <v>1.9005099999999999</v>
+        <v>0.58504999999999996</v>
       </c>
       <c r="I91" s="3">
         <f t="shared" si="2"/>
-        <v>0.114758</v>
+        <v>6.7297399999999993E-2</v>
       </c>
       <c r="J91" s="3">
         <f t="shared" si="3"/>
-        <v>1.9005099999999999</v>
+        <v>0.58504999999999996</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3196,30 +3196,30 @@
         <v>900001</v>
       </c>
       <c r="B92" s="3">
-        <v>0.116323</v>
+        <v>6.6965700000000003E-2</v>
       </c>
       <c r="C92" s="3">
-        <v>1.94147</v>
+        <v>0.60716899999999996</v>
       </c>
       <c r="D92" s="3">
-        <v>0.116242</v>
+        <v>6.7167199999999996E-2</v>
       </c>
       <c r="E92" s="3">
-        <v>1.9211499999999999</v>
+        <v>0.58941299999999996</v>
       </c>
       <c r="F92" s="3">
-        <v>0.115886</v>
+        <v>6.7613099999999995E-2</v>
       </c>
       <c r="G92" s="3">
-        <v>1.9282300000000001</v>
+        <v>0.59701700000000002</v>
       </c>
       <c r="I92" s="3">
         <f t="shared" si="2"/>
-        <v>0.115886</v>
+        <v>6.6965700000000003E-2</v>
       </c>
       <c r="J92" s="3">
         <f t="shared" si="3"/>
-        <v>1.9211499999999999</v>
+        <v>0.58941299999999996</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3227,30 +3227,30 @@
         <v>910001</v>
       </c>
       <c r="B93" s="3">
-        <v>0.117301</v>
+        <v>6.9234900000000002E-2</v>
       </c>
       <c r="C93" s="3">
-        <v>1.9555</v>
+        <v>0.60455300000000001</v>
       </c>
       <c r="D93" s="3">
-        <v>0.119673</v>
+        <v>6.9353499999999998E-2</v>
       </c>
       <c r="E93" s="3">
-        <v>1.9555800000000001</v>
+        <v>0.60650899999999996</v>
       </c>
       <c r="F93" s="3">
-        <v>0.119189</v>
+        <v>6.9301000000000001E-2</v>
       </c>
       <c r="G93" s="3">
-        <v>1.95651</v>
+        <v>0.61570800000000003</v>
       </c>
       <c r="I93" s="3">
         <f t="shared" si="2"/>
-        <v>0.117301</v>
+        <v>6.9234900000000002E-2</v>
       </c>
       <c r="J93" s="3">
         <f t="shared" si="3"/>
-        <v>1.9555</v>
+        <v>0.60455300000000001</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3258,30 +3258,30 @@
         <v>920001</v>
       </c>
       <c r="B94" s="3">
-        <v>0.12307800000000001</v>
+        <v>6.9616399999999995E-2</v>
       </c>
       <c r="C94" s="3">
-        <v>1.9798199999999999</v>
+        <v>0.61230600000000002</v>
       </c>
       <c r="D94" s="3">
-        <v>0.119501</v>
+        <v>6.9879700000000003E-2</v>
       </c>
       <c r="E94" s="3">
-        <v>1.9832799999999999</v>
+        <v>0.61433300000000002</v>
       </c>
       <c r="F94" s="3">
-        <v>0.121321</v>
+        <v>6.9678799999999999E-2</v>
       </c>
       <c r="G94" s="3">
-        <v>1.97027</v>
+        <v>0.61538599999999999</v>
       </c>
       <c r="I94" s="3">
         <f t="shared" si="2"/>
-        <v>0.119501</v>
+        <v>6.9616399999999995E-2</v>
       </c>
       <c r="J94" s="3">
         <f t="shared" si="3"/>
-        <v>1.97027</v>
+        <v>0.61230600000000002</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3289,30 +3289,30 @@
         <v>930001</v>
       </c>
       <c r="B95" s="3">
-        <v>0.120796</v>
+        <v>6.91523E-2</v>
       </c>
       <c r="C95" s="3">
-        <v>2.0166400000000002</v>
+        <v>0.63226899999999997</v>
       </c>
       <c r="D95" s="3">
-        <v>0.12253600000000001</v>
+        <v>6.9597300000000001E-2</v>
       </c>
       <c r="E95" s="3">
-        <v>2.0118499999999999</v>
+        <v>0.61730799999999997</v>
       </c>
       <c r="F95" s="3">
-        <v>0.11920799999999999</v>
+        <v>6.96687E-2</v>
       </c>
       <c r="G95" s="3">
-        <v>1.9963599999999999</v>
+        <v>0.62631499999999996</v>
       </c>
       <c r="I95" s="3">
         <f t="shared" si="2"/>
-        <v>0.11920799999999999</v>
+        <v>6.91523E-2</v>
       </c>
       <c r="J95" s="3">
         <f t="shared" si="3"/>
-        <v>1.9963599999999999</v>
+        <v>0.61730799999999997</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -3320,30 +3320,30 @@
         <v>940001</v>
       </c>
       <c r="B96" s="3">
-        <v>0.12604699999999999</v>
+        <v>7.0921799999999993E-2</v>
       </c>
       <c r="C96" s="3">
-        <v>2.0387400000000002</v>
+        <v>0.64653899999999997</v>
       </c>
       <c r="D96" s="3">
-        <v>0.12234299999999999</v>
+        <v>7.0618100000000003E-2</v>
       </c>
       <c r="E96" s="3">
-        <v>2.0413700000000001</v>
+        <v>0.62764299999999995</v>
       </c>
       <c r="F96" s="3">
-        <v>0.121762</v>
+        <v>7.0996699999999996E-2</v>
       </c>
       <c r="G96" s="3">
-        <v>2.0188899999999999</v>
+        <v>0.63868000000000003</v>
       </c>
       <c r="I96" s="3">
         <f t="shared" si="2"/>
-        <v>0.121762</v>
+        <v>7.0618100000000003E-2</v>
       </c>
       <c r="J96" s="3">
         <f t="shared" si="3"/>
-        <v>2.0188899999999999</v>
+        <v>0.62764299999999995</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3351,30 +3351,30 @@
         <v>950001</v>
       </c>
       <c r="B97" s="3">
-        <v>0.12360500000000001</v>
+        <v>7.1100499999999997E-2</v>
       </c>
       <c r="C97" s="3">
-        <v>2.0541499999999999</v>
+        <v>0.64162699999999995</v>
       </c>
       <c r="D97" s="3">
-        <v>0.125469</v>
+        <v>7.12507E-2</v>
       </c>
       <c r="E97" s="3">
-        <v>2.0591300000000001</v>
+        <v>0.64216200000000001</v>
       </c>
       <c r="F97" s="3">
-        <v>0.125248</v>
+        <v>7.1976799999999994E-2</v>
       </c>
       <c r="G97" s="3">
-        <v>2.0634700000000001</v>
+        <v>0.64947999999999995</v>
       </c>
       <c r="I97" s="3">
         <f t="shared" si="2"/>
-        <v>0.12360500000000001</v>
+        <v>7.1100499999999997E-2</v>
       </c>
       <c r="J97" s="3">
         <f t="shared" si="3"/>
-        <v>2.0541499999999999</v>
+        <v>0.64162699999999995</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3382,30 +3382,30 @@
         <v>960001</v>
       </c>
       <c r="B98" s="3">
-        <v>0.12654899999999999</v>
+        <v>7.2410799999999997E-2</v>
       </c>
       <c r="C98" s="3">
-        <v>2.0764100000000001</v>
+        <v>0.64960600000000002</v>
       </c>
       <c r="D98" s="3">
-        <v>0.12656000000000001</v>
+        <v>7.2400699999999998E-2</v>
       </c>
       <c r="E98" s="3">
-        <v>2.0745800000000001</v>
+        <v>0.64704099999999998</v>
       </c>
       <c r="F98" s="3">
-        <v>0.126943</v>
+        <v>7.2411299999999998E-2</v>
       </c>
       <c r="G98" s="3">
-        <v>2.0779399999999999</v>
+        <v>0.64829199999999998</v>
       </c>
       <c r="I98" s="3">
         <f t="shared" si="2"/>
-        <v>0.12654899999999999</v>
+        <v>7.2400699999999998E-2</v>
       </c>
       <c r="J98" s="3">
         <f t="shared" si="3"/>
-        <v>2.0745800000000001</v>
+        <v>0.64704099999999998</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3413,30 +3413,30 @@
         <v>970001</v>
       </c>
       <c r="B99" s="3">
-        <v>0.12428599999999999</v>
+        <v>7.15195E-2</v>
       </c>
       <c r="C99" s="3">
-        <v>2.1094200000000001</v>
+        <v>0.66118200000000005</v>
       </c>
       <c r="D99" s="3">
-        <v>0.12825900000000001</v>
+        <v>7.1688500000000002E-2</v>
       </c>
       <c r="E99" s="3">
-        <v>2.1075200000000001</v>
+        <v>0.66311200000000003</v>
       </c>
       <c r="F99" s="3">
-        <v>0.124985</v>
+        <v>7.2290900000000005E-2</v>
       </c>
       <c r="G99" s="3">
-        <v>2.1133000000000002</v>
+        <v>0.66136200000000001</v>
       </c>
       <c r="I99" s="3">
         <f t="shared" si="2"/>
-        <v>0.12428599999999999</v>
+        <v>7.15195E-2</v>
       </c>
       <c r="J99" s="3">
         <f t="shared" si="3"/>
-        <v>2.1075200000000001</v>
+        <v>0.66118200000000005</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -3444,30 +3444,30 @@
         <v>980001</v>
       </c>
       <c r="B100" s="3">
-        <v>0.12966900000000001</v>
+        <v>7.4053400000000005E-2</v>
       </c>
       <c r="C100" s="3">
-        <v>2.1368</v>
+        <v>0.67396900000000004</v>
       </c>
       <c r="D100" s="3">
-        <v>0.12825300000000001</v>
+        <v>7.4621099999999996E-2</v>
       </c>
       <c r="E100" s="3">
-        <v>2.1481599999999998</v>
+        <v>0.66178099999999995</v>
       </c>
       <c r="F100" s="3">
-        <v>0.130527</v>
+        <v>7.4502499999999999E-2</v>
       </c>
       <c r="G100" s="3">
-        <v>2.1387</v>
+        <v>0.68412499999999998</v>
       </c>
       <c r="I100" s="3">
         <f t="shared" si="2"/>
-        <v>0.12825300000000001</v>
+        <v>7.4053400000000005E-2</v>
       </c>
       <c r="J100" s="3">
         <f t="shared" si="3"/>
-        <v>2.1368</v>
+        <v>0.66178099999999995</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3475,30 +3475,30 @@
         <v>990001</v>
       </c>
       <c r="B101" s="3">
-        <v>0.13108900000000001</v>
+        <v>7.4899300000000002E-2</v>
       </c>
       <c r="C101" s="3">
-        <v>2.1618599999999999</v>
+        <v>0.67838600000000004</v>
       </c>
       <c r="D101" s="3">
-        <v>0.13220899999999999</v>
+        <v>7.5004199999999993E-2</v>
       </c>
       <c r="E101" s="3">
-        <v>2.1620699999999999</v>
+        <v>0.68606500000000004</v>
       </c>
       <c r="F101" s="3">
-        <v>0.13004199999999999</v>
+        <v>7.4930499999999997E-2</v>
       </c>
       <c r="G101" s="3">
-        <v>2.1654900000000001</v>
+        <v>0.68043600000000004</v>
       </c>
       <c r="I101" s="3">
         <f t="shared" si="2"/>
-        <v>0.13004199999999999</v>
+        <v>7.4899300000000002E-2</v>
       </c>
       <c r="J101" s="3">
         <f t="shared" si="3"/>
-        <v>2.1618599999999999</v>
+        <v>0.67838600000000004</v>
       </c>
     </row>
   </sheetData>
